--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1345463.676467788</v>
+        <v>1344816.703926603</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12279284.88778175</v>
+        <v>12279284.88778174</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681859</v>
+        <v>590120.9651681858</v>
       </c>
     </row>
     <row r="9">
@@ -1367,70 +1367,70 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>24.6869033053862</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="C11" t="n">
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.565094327417443</v>
+      </c>
+      <c r="U11" t="n">
+        <v>32.99210285748828</v>
+      </c>
+      <c r="V11" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="D11" t="n">
+      <c r="W11" t="n">
         <v>68.39702598806991</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>60.24410049029193</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>6.191472723087881</v>
+        <v>6.191472723087853</v>
       </c>
       <c r="V12" t="n">
-        <v>13.45870707964397</v>
+        <v>13.45870707964394</v>
       </c>
       <c r="W12" t="n">
-        <v>31.53932278998889</v>
+        <v>31.53932278998886</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4251038644362839</v>
+        <v>0.4251038644362617</v>
       </c>
       <c r="T13" t="n">
-        <v>9.028675106938193</v>
+        <v>9.028675106938167</v>
       </c>
       <c r="U13" t="n">
-        <v>67.59134727882466</v>
+        <v>67.59134727882463</v>
       </c>
       <c r="V13" t="n">
-        <v>34.486327106928</v>
+        <v>34.48632710692797</v>
       </c>
       <c r="W13" t="n">
-        <v>67.64255292740438</v>
+        <v>67.64255292740435</v>
       </c>
       <c r="X13" t="n">
-        <v>7.690335972298101</v>
+        <v>7.690335972298072</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.298649907757067</v>
+        <v>0.2986499077570386</v>
       </c>
     </row>
     <row r="14">
@@ -1604,73 +1604,73 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>68.39702598806991</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>32.99210285748827</v>
+      </c>
+      <c r="V14" t="n">
+        <v>27.25199763280366</v>
+      </c>
+      <c r="W14" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>57.67900616287447</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.565094327417455</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>6.191472723087881</v>
+        <v>6.191472723087853</v>
       </c>
       <c r="V15" t="n">
-        <v>13.45870707964397</v>
+        <v>13.45870707964394</v>
       </c>
       <c r="W15" t="n">
-        <v>31.53932278998889</v>
+        <v>31.53932278998886</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4251038644362839</v>
+        <v>0.4251038644362617</v>
       </c>
       <c r="T16" t="n">
-        <v>9.028675106938193</v>
+        <v>9.028675106938167</v>
       </c>
       <c r="U16" t="n">
-        <v>67.59134727882466</v>
+        <v>67.59134727882463</v>
       </c>
       <c r="V16" t="n">
-        <v>34.486327106928</v>
+        <v>34.48632710692797</v>
       </c>
       <c r="W16" t="n">
-        <v>67.64255292740438</v>
+        <v>67.64255292740435</v>
       </c>
       <c r="X16" t="n">
-        <v>7.690335972298101</v>
+        <v>7.690335972298072</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.298649907757067</v>
+        <v>0.2986499077570386</v>
       </c>
     </row>
     <row r="17">
@@ -1850,13 +1850,13 @@
         <v>6.074615754043805</v>
       </c>
       <c r="E17" t="n">
-        <v>32.58791875473287</v>
+        <v>32.58791875473288</v>
       </c>
       <c r="F17" t="n">
         <v>56.76374647998625</v>
       </c>
       <c r="G17" t="n">
-        <v>63.87918891521429</v>
+        <v>63.87918891521427</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33.18629299084042</v>
+        <v>33.18629299084046</v>
       </c>
       <c r="C20" t="n">
-        <v>16.45497867838804</v>
+        <v>16.45497867838803</v>
       </c>
       <c r="D20" t="n">
         <v>6.074615754043805</v>
@@ -2093,7 +2093,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G20" t="n">
-        <v>63.87918891521426</v>
+        <v>63.87918891521427</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G23" t="n">
-        <v>63.87918891521426</v>
+        <v>63.87918891521427</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>186.2787451931122</v>
       </c>
       <c r="G26" t="n">
-        <v>193.3941876283402</v>
+        <v>193.3941876283403</v>
       </c>
       <c r="H26" t="n">
         <v>112.566723118609</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.463580779520738</v>
+        <v>6.463580779520739</v>
       </c>
       <c r="U28" t="n">
         <v>65.0262529514072</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>6.463580779520738</v>
+        <v>6.463580779520739</v>
       </c>
       <c r="U31" t="n">
         <v>65.0262529514072</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.7012917039664</v>
+        <v>162.7012917039665</v>
       </c>
       <c r="C32" t="n">
         <v>145.969977391514</v>
@@ -3035,16 +3035,16 @@
         <v>135.5896144671698</v>
       </c>
       <c r="E32" t="n">
-        <v>162.1029174678588</v>
+        <v>162.1029174678589</v>
       </c>
       <c r="F32" t="n">
-        <v>186.2787451931122</v>
+        <v>186.2787451931123</v>
       </c>
       <c r="G32" t="n">
         <v>193.3941876283403</v>
       </c>
       <c r="H32" t="n">
-        <v>112.566723118609</v>
+        <v>112.5667231186091</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.42700853007085</v>
+        <v>30.42700853007088</v>
       </c>
       <c r="V32" t="n">
-        <v>107.5181032350907</v>
+        <v>107.5181032350908</v>
       </c>
       <c r="W32" t="n">
         <v>129.514998713126</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>3.626378395670427</v>
+        <v>3.626378395670455</v>
       </c>
       <c r="V33" t="n">
-        <v>10.89361275222652</v>
+        <v>10.89361275222655</v>
       </c>
       <c r="W33" t="n">
-        <v>28.97422846257143</v>
+        <v>28.97422846257146</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>6.463580779520738</v>
+        <v>6.463580779520767</v>
       </c>
       <c r="U34" t="n">
-        <v>65.0262529514072</v>
+        <v>65.02625295140723</v>
       </c>
       <c r="V34" t="n">
-        <v>31.92123277951055</v>
+        <v>31.92123277951058</v>
       </c>
       <c r="W34" t="n">
-        <v>65.07745859998693</v>
+        <v>65.07745859998695</v>
       </c>
       <c r="X34" t="n">
-        <v>5.125241644880646</v>
+        <v>5.125241644880674</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>107.3954005085842</v>
       </c>
       <c r="X44" t="n">
-        <v>127.7268826391991</v>
+        <v>127.726882639199</v>
       </c>
       <c r="Y44" t="n">
         <v>143.5523552592654</v>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>143.6475721559545</v>
+        <v>99.49593308253662</v>
       </c>
       <c r="C11" t="n">
+        <v>99.49593308253662</v>
+      </c>
+      <c r="D11" t="n">
         <v>74.55966711750006</v>
       </c>
-      <c r="D11" t="n">
-        <v>5.471762079045593</v>
-      </c>
       <c r="E11" t="n">
-        <v>5.471762079045593</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="F11" t="n">
         <v>5.471762079045593</v>
@@ -5036,55 +5036,55 @@
         <v>5.471762079045593</v>
       </c>
       <c r="I11" t="n">
-        <v>35.56706215439188</v>
+        <v>35.56706215439187</v>
       </c>
       <c r="J11" t="n">
-        <v>35.56706215439188</v>
+        <v>35.56706215439187</v>
       </c>
       <c r="K11" t="n">
-        <v>95.48833333466584</v>
+        <v>79.7795150117921</v>
       </c>
       <c r="L11" t="n">
-        <v>153.774204686029</v>
+        <v>79.7795150117921</v>
       </c>
       <c r="M11" t="n">
-        <v>221.4872604142183</v>
+        <v>147.4925707399813</v>
       </c>
       <c r="N11" t="n">
-        <v>221.4872604142183</v>
+        <v>147.4925707399813</v>
       </c>
       <c r="O11" t="n">
-        <v>221.4872604142183</v>
+        <v>215.2056264681705</v>
       </c>
       <c r="P11" t="n">
-        <v>273.5881039522797</v>
+        <v>215.2056264681705</v>
       </c>
       <c r="Q11" t="n">
-        <v>273.5881039522797</v>
+        <v>215.2056264681705</v>
       </c>
       <c r="R11" t="n">
-        <v>273.5881039522797</v>
+        <v>251.0794834348001</v>
       </c>
       <c r="S11" t="n">
         <v>273.5881039522797</v>
       </c>
       <c r="T11" t="n">
-        <v>273.5881039522797</v>
+        <v>270.9970995811509</v>
       </c>
       <c r="U11" t="n">
-        <v>273.5881039522797</v>
+        <v>237.6717431594456</v>
       </c>
       <c r="V11" t="n">
-        <v>212.735477194409</v>
+        <v>168.5838381209911</v>
       </c>
       <c r="W11" t="n">
-        <v>212.735477194409</v>
+        <v>99.49593308253662</v>
       </c>
       <c r="X11" t="n">
-        <v>212.735477194409</v>
+        <v>99.49593308253662</v>
       </c>
       <c r="Y11" t="n">
-        <v>212.735477194409</v>
+        <v>99.49593308253662</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>221.8815356768041</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C12" t="n">
-        <v>221.8815356768041</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D12" t="n">
-        <v>221.8815356768041</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E12" t="n">
-        <v>221.8815356768041</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F12" t="n">
-        <v>221.8815356768041</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G12" t="n">
-        <v>221.8815356768041</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H12" t="n">
-        <v>221.8815356768041</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I12" t="n">
-        <v>221.8815356768041</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J12" t="n">
-        <v>221.8815356768041</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K12" t="n">
-        <v>221.8815356768041</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L12" t="n">
-        <v>221.8815356768041</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="M12" t="n">
-        <v>221.8815356768041</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="N12" t="n">
-        <v>221.8815356768041</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="O12" t="n">
-        <v>221.8815356768041</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="P12" t="n">
-        <v>221.8815356768041</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.5881039522797</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="R12" t="n">
-        <v>273.5881039522797</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="S12" t="n">
-        <v>273.5881039522797</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="T12" t="n">
-        <v>273.5881039522797</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="U12" t="n">
-        <v>267.3340911006757</v>
+        <v>50.92431750291711</v>
       </c>
       <c r="V12" t="n">
-        <v>253.7394374848737</v>
+        <v>37.32966388711515</v>
       </c>
       <c r="W12" t="n">
-        <v>221.8815356768041</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X12" t="n">
-        <v>221.8815356768041</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y12" t="n">
-        <v>221.8815356768041</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="13">
@@ -5191,55 +5191,55 @@
         <v>5.471762079045593</v>
       </c>
       <c r="H13" t="n">
-        <v>5.471762079045593</v>
+        <v>63.47835070572656</v>
       </c>
       <c r="I13" t="n">
-        <v>5.471762079045593</v>
+        <v>63.47835070572656</v>
       </c>
       <c r="J13" t="n">
-        <v>5.471762079045593</v>
+        <v>63.47835070572656</v>
       </c>
       <c r="K13" t="n">
-        <v>5.471762079045593</v>
+        <v>63.47835070572656</v>
       </c>
       <c r="L13" t="n">
-        <v>5.471762079045593</v>
+        <v>63.47835070572656</v>
       </c>
       <c r="M13" t="n">
-        <v>73.18481780723481</v>
+        <v>63.47835070572656</v>
       </c>
       <c r="N13" t="n">
-        <v>126.8122337898328</v>
+        <v>131.1914064339158</v>
       </c>
       <c r="O13" t="n">
-        <v>126.8122337898328</v>
+        <v>131.1914064339158</v>
       </c>
       <c r="P13" t="n">
-        <v>126.8122337898328</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.525289518022</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="R13" t="n">
-        <v>194.525289518022</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="S13" t="n">
-        <v>194.0958916751571</v>
+        <v>194.0958916751569</v>
       </c>
       <c r="T13" t="n">
-        <v>184.976017829765</v>
+        <v>184.9760178297648</v>
       </c>
       <c r="U13" t="n">
-        <v>116.701929669336</v>
+        <v>116.7019296693359</v>
       </c>
       <c r="V13" t="n">
-        <v>81.86725582395422</v>
+        <v>81.86725582395414</v>
       </c>
       <c r="W13" t="n">
-        <v>13.54144478617203</v>
+        <v>13.54144478617197</v>
       </c>
       <c r="X13" t="n">
-        <v>5.77342865253758</v>
+        <v>5.773428652537551</v>
       </c>
       <c r="Y13" t="n">
         <v>5.471762079045593</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>201.9091945426964</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="C14" t="n">
-        <v>132.8212895042419</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D14" t="n">
-        <v>63.73338446578748</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E14" t="n">
-        <v>63.73338446578748</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F14" t="n">
-        <v>63.73338446578748</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G14" t="n">
         <v>5.471762079045593</v>
@@ -5276,28 +5276,28 @@
         <v>5.471762079045593</v>
       </c>
       <c r="J14" t="n">
-        <v>73.18481780723481</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K14" t="n">
-        <v>115.6533719784216</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L14" t="n">
-        <v>115.6533719784216</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M14" t="n">
-        <v>183.3664277066109</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N14" t="n">
-        <v>251.0794834348001</v>
+        <v>41.69911754908732</v>
       </c>
       <c r="O14" t="n">
-        <v>251.0794834348001</v>
+        <v>109.4121732772765</v>
       </c>
       <c r="P14" t="n">
-        <v>251.0794834348001</v>
+        <v>165.8971027405232</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.0794834348001</v>
+        <v>215.2056264681705</v>
       </c>
       <c r="R14" t="n">
         <v>251.0794834348001</v>
@@ -5306,22 +5306,22 @@
         <v>273.5881039522797</v>
       </c>
       <c r="T14" t="n">
-        <v>270.9970995811509</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="U14" t="n">
-        <v>270.9970995811509</v>
+        <v>240.2627475305743</v>
       </c>
       <c r="V14" t="n">
-        <v>270.9970995811509</v>
+        <v>212.735477194409</v>
       </c>
       <c r="W14" t="n">
-        <v>270.9970995811509</v>
+        <v>143.6475721559545</v>
       </c>
       <c r="X14" t="n">
-        <v>270.9970995811509</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="Y14" t="n">
-        <v>270.9970995811509</v>
+        <v>74.55966711750006</v>
       </c>
     </row>
     <row r="15">
@@ -5337,61 +5337,61 @@
         <v>5.471762079045593</v>
       </c>
       <c r="D15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="E15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="F15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="G15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="H15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="I15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="J15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="K15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="L15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="M15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="N15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="O15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="P15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="R15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="S15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="T15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="U15" t="n">
-        <v>50.92431750291717</v>
+        <v>50.92431750291711</v>
       </c>
       <c r="V15" t="n">
-        <v>37.32966388711517</v>
+        <v>37.32966388711515</v>
       </c>
       <c r="W15" t="n">
         <v>5.471762079045593</v>
@@ -5425,58 +5425,58 @@
         <v>73.18481780723481</v>
       </c>
       <c r="G16" t="n">
-        <v>73.18481780723481</v>
+        <v>83.01572422193604</v>
       </c>
       <c r="H16" t="n">
-        <v>73.18481780723481</v>
+        <v>141.022312848617</v>
       </c>
       <c r="I16" t="n">
-        <v>73.18481780723481</v>
+        <v>141.022312848617</v>
       </c>
       <c r="J16" t="n">
-        <v>73.18481780723481</v>
+        <v>141.022312848617</v>
       </c>
       <c r="K16" t="n">
-        <v>73.18481780723481</v>
+        <v>141.022312848617</v>
       </c>
       <c r="L16" t="n">
-        <v>73.18481780723481</v>
+        <v>141.022312848617</v>
       </c>
       <c r="M16" t="n">
-        <v>140.897873535424</v>
+        <v>141.022312848617</v>
       </c>
       <c r="N16" t="n">
-        <v>140.897873535424</v>
+        <v>141.022312848617</v>
       </c>
       <c r="O16" t="n">
-        <v>140.897873535424</v>
+        <v>141.022312848617</v>
       </c>
       <c r="P16" t="n">
-        <v>140.897873535424</v>
+        <v>141.022312848617</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.525289518022</v>
+        <v>141.022312848617</v>
       </c>
       <c r="R16" t="n">
-        <v>194.525289518022</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="S16" t="n">
-        <v>194.0958916751571</v>
+        <v>194.0958916751569</v>
       </c>
       <c r="T16" t="n">
-        <v>184.976017829765</v>
+        <v>184.9760178297648</v>
       </c>
       <c r="U16" t="n">
-        <v>116.701929669336</v>
+        <v>116.7019296693359</v>
       </c>
       <c r="V16" t="n">
-        <v>81.86725582395422</v>
+        <v>81.86725582395414</v>
       </c>
       <c r="W16" t="n">
-        <v>13.54144478617203</v>
+        <v>13.54144478617197</v>
       </c>
       <c r="X16" t="n">
-        <v>5.77342865253758</v>
+        <v>5.773428652537551</v>
       </c>
       <c r="Y16" t="n">
         <v>5.471762079045593</v>
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>183.0075687278993</v>
+        <v>183.0075687278994</v>
       </c>
       <c r="C17" t="n">
-        <v>166.3863781436689</v>
+        <v>166.386378143669</v>
       </c>
       <c r="D17" t="n">
         <v>160.2504026345339</v>
@@ -5501,7 +5501,7 @@
         <v>127.3333129832886</v>
       </c>
       <c r="F17" t="n">
-        <v>69.9961953267368</v>
+        <v>69.99619532673677</v>
       </c>
       <c r="G17" t="n">
         <v>5.471762079045593</v>
@@ -5510,40 +5510,40 @@
         <v>5.471762079045593</v>
       </c>
       <c r="I17" t="n">
-        <v>5.471762079045593</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="J17" t="n">
-        <v>5.471762079045593</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="K17" t="n">
-        <v>5.471762079045593</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="L17" t="n">
-        <v>5.471762079045593</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="M17" t="n">
-        <v>5.471762079045593</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="N17" t="n">
-        <v>5.471762079045593</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="O17" t="n">
-        <v>73.18481780723481</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="P17" t="n">
-        <v>73.18481780723481</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.1619924959012</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="R17" t="n">
         <v>205.8750482240904</v>
       </c>
       <c r="S17" t="n">
-        <v>273.5881039522797</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="T17" t="n">
-        <v>273.5881039522797</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="U17" t="n">
         <v>273.5881039522797</v>
@@ -5555,10 +5555,10 @@
         <v>273.5881039522797</v>
       </c>
       <c r="X17" t="n">
-        <v>253.0512533152951</v>
+        <v>253.051253315295</v>
       </c>
       <c r="Y17" t="n">
-        <v>216.5290767994553</v>
+        <v>216.5290767994554</v>
       </c>
     </row>
     <row r="18">
@@ -5732,13 +5732,13 @@
         <v>166.386378143669</v>
       </c>
       <c r="D20" t="n">
-        <v>160.2504026345338</v>
+        <v>160.2504026345339</v>
       </c>
       <c r="E20" t="n">
         <v>127.3333129832885</v>
       </c>
       <c r="F20" t="n">
-        <v>69.99619532673671</v>
+        <v>69.99619532673674</v>
       </c>
       <c r="G20" t="n">
         <v>5.471762079045593</v>
@@ -5747,43 +5747,43 @@
         <v>5.471762079045593</v>
       </c>
       <c r="I20" t="n">
-        <v>5.471762079045593</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="J20" t="n">
-        <v>70.44893676771203</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="K20" t="n">
-        <v>138.1619924959012</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="L20" t="n">
-        <v>138.1619924959012</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="M20" t="n">
-        <v>138.1619924959012</v>
+        <v>140.897873535424</v>
       </c>
       <c r="N20" t="n">
-        <v>205.8750482240904</v>
+        <v>140.897873535424</v>
       </c>
       <c r="O20" t="n">
-        <v>205.8750482240904</v>
+        <v>140.897873535424</v>
       </c>
       <c r="P20" t="n">
-        <v>205.8750482240904</v>
+        <v>140.897873535424</v>
       </c>
       <c r="Q20" t="n">
-        <v>205.8750482240904</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="R20" t="n">
-        <v>205.8750482240904</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8750482240904</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="T20" t="n">
-        <v>273.5881039522797</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="U20" t="n">
-        <v>273.5881039522797</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="V20" t="n">
         <v>273.5881039522797</v>
@@ -5987,34 +5987,34 @@
         <v>5.471762079045594</v>
       </c>
       <c r="J23" t="n">
-        <v>5.471762079045594</v>
+        <v>70.44893676771201</v>
       </c>
       <c r="K23" t="n">
-        <v>5.471762079045594</v>
+        <v>70.44893676771201</v>
       </c>
       <c r="L23" t="n">
         <v>70.44893676771201</v>
       </c>
       <c r="M23" t="n">
-        <v>70.44893676771201</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="N23" t="n">
-        <v>70.44893676771201</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="O23" t="n">
-        <v>70.44893676771201</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="P23" t="n">
-        <v>70.44893676771201</v>
+        <v>205.8750482240905</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.1619924959012</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="R23" t="n">
-        <v>138.1619924959012</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="S23" t="n">
-        <v>205.8750482240905</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="T23" t="n">
         <v>273.5881039522797</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>980.0203689923729</v>
+        <v>980.0203689923728</v>
       </c>
       <c r="C26" t="n">
-        <v>832.5759473847829</v>
+        <v>832.575947384783</v>
       </c>
       <c r="D26" t="n">
-        <v>695.6167408522882</v>
+        <v>695.6167408522883</v>
       </c>
       <c r="E26" t="n">
-        <v>531.8764201776833</v>
+        <v>531.8764201776834</v>
       </c>
       <c r="F26" t="n">
-        <v>343.7160714977717</v>
+        <v>343.716071497772</v>
       </c>
       <c r="G26" t="n">
         <v>148.3684072267213</v>
@@ -6221,31 +6221,31 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I26" t="n">
-        <v>49.85513362888035</v>
+        <v>67.29938996034309</v>
       </c>
       <c r="J26" t="n">
-        <v>131.3352804417102</v>
+        <v>322.88141175434</v>
       </c>
       <c r="K26" t="n">
-        <v>193.7959950061275</v>
+        <v>385.3421263187571</v>
       </c>
       <c r="L26" t="n">
-        <v>429.8855410904316</v>
+        <v>385.3421263187571</v>
       </c>
       <c r="M26" t="n">
-        <v>747.7995740018749</v>
+        <v>814.3171267668199</v>
       </c>
       <c r="N26" t="n">
-        <v>823.8531870724197</v>
+        <v>1057.178113195542</v>
       </c>
       <c r="O26" t="n">
-        <v>1252.828187520483</v>
+        <v>1128.18514492134</v>
       </c>
       <c r="P26" t="n">
-        <v>1643.176510301231</v>
+        <v>1356.709917295454</v>
       </c>
       <c r="Q26" t="n">
-        <v>1694.819024691905</v>
+        <v>1627.157398790682</v>
       </c>
       <c r="R26" t="n">
         <v>1733.232325042678</v>
@@ -6266,7 +6266,7 @@
         <v>1463.070597286832</v>
       </c>
       <c r="X26" t="n">
-        <v>1311.710515626488</v>
+        <v>1311.710515626487</v>
       </c>
       <c r="Y26" t="n">
         <v>1144.365108087288</v>
@@ -6321,16 +6321,16 @@
         <v>34.66464650085356</v>
       </c>
       <c r="P27" t="n">
-        <v>55.24086313024058</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="Q27" t="n">
-        <v>55.24086313024058</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="R27" t="n">
-        <v>55.24086313024058</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="S27" t="n">
-        <v>55.24086313024058</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="T27" t="n">
         <v>78.59820166294284</v>
@@ -6358,55 +6358,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.90842647631735</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="C28" t="n">
-        <v>36.90842647631735</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D28" t="n">
-        <v>36.90842647631735</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E28" t="n">
-        <v>36.90842647631735</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F28" t="n">
-        <v>36.90842647631735</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G28" t="n">
-        <v>36.90842647631735</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.45445848714157</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I28" t="n">
-        <v>169.9874395315738</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J28" t="n">
-        <v>169.9874395315738</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K28" t="n">
-        <v>169.9874395315738</v>
+        <v>82.08520593897042</v>
       </c>
       <c r="L28" t="n">
-        <v>169.9874395315738</v>
+        <v>82.08520593897042</v>
       </c>
       <c r="M28" t="n">
-        <v>169.9874395315738</v>
+        <v>82.08520593897042</v>
       </c>
       <c r="N28" t="n">
-        <v>169.9874395315738</v>
+        <v>207.913497109478</v>
       </c>
       <c r="O28" t="n">
-        <v>169.9874395315738</v>
+        <v>207.913497109478</v>
       </c>
       <c r="P28" t="n">
-        <v>169.9874395315738</v>
+        <v>207.913497109478</v>
       </c>
       <c r="Q28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.913497109478</v>
       </c>
       <c r="R28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.913497109478</v>
       </c>
       <c r="S28" t="n">
         <v>210.0320876678294</v>
@@ -6427,7 +6427,7 @@
         <v>34.66464650085356</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.90842647631735</v>
+        <v>34.66464650085356</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>980.0203689923728</v>
       </c>
       <c r="C29" t="n">
-        <v>832.5759473847829</v>
+        <v>832.5759473847833</v>
       </c>
       <c r="D29" t="n">
-        <v>695.6167408522882</v>
+        <v>695.6167408522886</v>
       </c>
       <c r="E29" t="n">
-        <v>531.8764201776834</v>
+        <v>531.8764201776836</v>
       </c>
       <c r="F29" t="n">
-        <v>343.716071497772</v>
+        <v>343.7160714977722</v>
       </c>
       <c r="G29" t="n">
         <v>148.3684072267213</v>
@@ -6458,34 +6458,34 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I29" t="n">
-        <v>67.29938996034312</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J29" t="n">
-        <v>67.29938996034312</v>
+        <v>290.2466682948505</v>
       </c>
       <c r="K29" t="n">
-        <v>129.7601045247604</v>
+        <v>352.7073828592676</v>
       </c>
       <c r="L29" t="n">
-        <v>401.8044386568562</v>
+        <v>624.7517169913633</v>
       </c>
       <c r="M29" t="n">
-        <v>475.7043045886336</v>
+        <v>1053.726717439426</v>
       </c>
       <c r="N29" t="n">
-        <v>904.6793050366964</v>
+        <v>1340.299106447664</v>
       </c>
       <c r="O29" t="n">
-        <v>1333.654305484759</v>
+        <v>1340.299106447664</v>
       </c>
       <c r="P29" t="n">
-        <v>1404.58827655905</v>
+        <v>1399.323479295054</v>
       </c>
       <c r="Q29" t="n">
-        <v>1675.035758054279</v>
+        <v>1669.770960790283</v>
       </c>
       <c r="R29" t="n">
-        <v>1713.449058405052</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="S29" t="n">
         <v>1733.232325042678</v>
@@ -6503,7 +6503,7 @@
         <v>1463.070597286832</v>
       </c>
       <c r="X29" t="n">
-        <v>1311.710515626488</v>
+        <v>1311.710515626487</v>
       </c>
       <c r="Y29" t="n">
         <v>1144.365108087288</v>
@@ -6519,25 +6519,25 @@
         <v>34.66464650085356</v>
       </c>
       <c r="C30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J30" t="n">
         <v>78.59820166294284</v>
@@ -6598,37 +6598,37 @@
         <v>34.66464650085356</v>
       </c>
       <c r="C31" t="n">
-        <v>87.80642620351756</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D31" t="n">
-        <v>87.80642620351756</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E31" t="n">
-        <v>87.80642620351756</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F31" t="n">
-        <v>87.80642620351756</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G31" t="n">
-        <v>87.80642620351756</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H31" t="n">
-        <v>87.80642620351756</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I31" t="n">
-        <v>87.80642620351756</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J31" t="n">
-        <v>87.80642620351756</v>
+        <v>84.20379649732176</v>
       </c>
       <c r="K31" t="n">
-        <v>87.80642620351756</v>
+        <v>84.20379649732176</v>
       </c>
       <c r="L31" t="n">
-        <v>205.8243408922544</v>
+        <v>84.20379649732176</v>
       </c>
       <c r="M31" t="n">
-        <v>210.0320876678294</v>
+        <v>84.20379649732176</v>
       </c>
       <c r="N31" t="n">
         <v>210.0320876678294</v>
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>980.0203689923728</v>
+        <v>980.0203689923731</v>
       </c>
       <c r="C32" t="n">
-        <v>832.5759473847833</v>
+        <v>832.5759473847831</v>
       </c>
       <c r="D32" t="n">
         <v>695.6167408522886</v>
       </c>
       <c r="E32" t="n">
-        <v>531.8764201776836</v>
+        <v>531.8764201776835</v>
       </c>
       <c r="F32" t="n">
         <v>343.7160714977722</v>
@@ -6695,31 +6695,31 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I32" t="n">
-        <v>34.66464650085356</v>
+        <v>67.29938996034306</v>
       </c>
       <c r="J32" t="n">
-        <v>247.926205273269</v>
+        <v>148.7795367731728</v>
       </c>
       <c r="K32" t="n">
-        <v>310.3869198376863</v>
+        <v>148.7795367731728</v>
       </c>
       <c r="L32" t="n">
-        <v>739.3619202857491</v>
+        <v>577.7545372212356</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.336920733812</v>
+        <v>1006.729537669298</v>
       </c>
       <c r="N32" t="n">
-        <v>1597.311921181875</v>
+        <v>1082.783150739843</v>
       </c>
       <c r="O32" t="n">
-        <v>1597.311921181875</v>
+        <v>1446.379638002298</v>
       </c>
       <c r="P32" t="n">
-        <v>1656.336294029265</v>
+        <v>1617.922993678492</v>
       </c>
       <c r="Q32" t="n">
-        <v>1708.184261141055</v>
+        <v>1669.770960790283</v>
       </c>
       <c r="R32" t="n">
         <v>1708.184261141055</v>
@@ -6734,16 +6734,16 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V32" t="n">
-        <v>1593.893828310191</v>
+        <v>1593.893828310192</v>
       </c>
       <c r="W32" t="n">
         <v>1463.070597286832</v>
       </c>
       <c r="X32" t="n">
-        <v>1311.710515626487</v>
+        <v>1311.710515626488</v>
       </c>
       <c r="Y32" t="n">
-        <v>1144.365108087288</v>
+        <v>1144.365108087289</v>
       </c>
     </row>
     <row r="33">
@@ -6759,61 +6759,61 @@
         <v>34.66464650085356</v>
       </c>
       <c r="D33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="E33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="F33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="G33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="H33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="I33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="J33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="K33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="L33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="M33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="N33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="O33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="P33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="R33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="S33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="T33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="U33" t="n">
-        <v>74.93519318246766</v>
+        <v>74.93519318246771</v>
       </c>
       <c r="V33" t="n">
-        <v>63.9315439377944</v>
+        <v>63.93154393779443</v>
       </c>
       <c r="W33" t="n">
         <v>34.66464650085356</v>
@@ -6835,67 +6835,67 @@
         <v>34.66464650085356</v>
       </c>
       <c r="C34" t="n">
-        <v>34.66464650085356</v>
+        <v>87.80642620351753</v>
       </c>
       <c r="D34" t="n">
-        <v>34.66464650085356</v>
+        <v>87.80642620351753</v>
       </c>
       <c r="E34" t="n">
-        <v>34.66464650085356</v>
+        <v>92.77412570834896</v>
       </c>
       <c r="F34" t="n">
-        <v>34.66464650085356</v>
+        <v>92.77412570834896</v>
       </c>
       <c r="G34" t="n">
-        <v>34.66464650085356</v>
+        <v>92.77412570834896</v>
       </c>
       <c r="H34" t="n">
-        <v>34.66464650085356</v>
+        <v>92.77412570834896</v>
       </c>
       <c r="I34" t="n">
-        <v>34.66464650085356</v>
+        <v>92.77412570834896</v>
       </c>
       <c r="J34" t="n">
-        <v>34.66464650085356</v>
+        <v>92.77412570834896</v>
       </c>
       <c r="K34" t="n">
-        <v>34.66464650085356</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="L34" t="n">
-        <v>34.66464650085356</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="M34" t="n">
-        <v>150.3806241592533</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="N34" t="n">
-        <v>150.3806241592533</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="O34" t="n">
-        <v>150.3806241592533</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="P34" t="n">
-        <v>153.9896676142813</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.9896676142813</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="R34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="S34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="T34" t="n">
-        <v>203.503218193566</v>
+        <v>203.5032181935661</v>
       </c>
       <c r="U34" t="n">
-        <v>137.8201344042658</v>
+        <v>137.8201344042659</v>
       </c>
       <c r="V34" t="n">
-        <v>105.5764649300127</v>
+        <v>105.5764649300128</v>
       </c>
       <c r="W34" t="n">
-        <v>39.84165826335926</v>
+        <v>39.84165826335929</v>
       </c>
       <c r="X34" t="n">
         <v>34.66464650085356</v>
@@ -6932,37 +6932,37 @@
         <v>29.19288442180797</v>
       </c>
       <c r="I35" t="n">
-        <v>83.72603010379387</v>
+        <v>83.72603010379385</v>
       </c>
       <c r="J35" t="n">
-        <v>187.1045791391201</v>
+        <v>361.2064541202871</v>
       </c>
       <c r="K35" t="n">
-        <v>187.1045791391201</v>
+        <v>445.5655709072006</v>
       </c>
       <c r="L35" t="n">
-        <v>516.3456565083513</v>
+        <v>445.5655709072006</v>
       </c>
       <c r="M35" t="n">
-        <v>877.6076012282249</v>
+        <v>779.6226913102308</v>
       </c>
       <c r="N35" t="n">
-        <v>1238.869545948098</v>
+        <v>877.5747066032718</v>
       </c>
       <c r="O35" t="n">
-        <v>1331.774979896393</v>
+        <v>970.480140551566</v>
       </c>
       <c r="P35" t="n">
-        <v>1412.697754966279</v>
+        <v>970.480140551566</v>
       </c>
       <c r="Q35" t="n">
-        <v>1412.697754966279</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="R35" t="n">
-        <v>1412.697754966279</v>
+        <v>1390.799352743783</v>
       </c>
       <c r="S35" t="n">
-        <v>1459.644221090398</v>
+        <v>1437.745818867902</v>
       </c>
       <c r="T35" t="n">
         <v>1459.644221090398</v>
@@ -7017,31 +7017,31 @@
         <v>29.19288442180797</v>
       </c>
       <c r="K36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="L36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="M36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="N36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="O36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="P36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="R36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="S36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="T36" t="n">
         <v>36.11675336931268</v>
@@ -7075,40 +7075,40 @@
         <v>29.19288442180797</v>
       </c>
       <c r="D37" t="n">
-        <v>122.3807428994845</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="E37" t="n">
-        <v>122.3807428994845</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="F37" t="n">
-        <v>122.3807428994845</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="G37" t="n">
-        <v>122.3807428994845</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="H37" t="n">
-        <v>122.3807428994845</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="I37" t="n">
-        <v>122.3807428994845</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="J37" t="n">
-        <v>122.3807428994845</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="K37" t="n">
-        <v>122.3807428994845</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="L37" t="n">
-        <v>122.3807428994845</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="M37" t="n">
-        <v>122.3807428994845</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="N37" t="n">
-        <v>122.3807428994845</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="O37" t="n">
-        <v>122.3807428994845</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="P37" t="n">
         <v>125.8253588837063</v>
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>840.49043597671</v>
+        <v>840.4904359767104</v>
       </c>
       <c r="C38" t="n">
-        <v>715.3890428585562</v>
+        <v>715.3890428585565</v>
       </c>
       <c r="D38" t="n">
-        <v>600.7728648154977</v>
+        <v>600.7728648154979</v>
       </c>
       <c r="E38" t="n">
-        <v>459.3755726303289</v>
+        <v>459.3755726303291</v>
       </c>
       <c r="F38" t="n">
         <v>293.5582524398537</v>
@@ -7169,25 +7169,25 @@
         <v>29.19288442180797</v>
       </c>
       <c r="I38" t="n">
-        <v>83.72603010379389</v>
+        <v>83.72603010379386</v>
       </c>
       <c r="J38" t="n">
-        <v>83.72603010379389</v>
+        <v>361.2064541202871</v>
       </c>
       <c r="K38" t="n">
-        <v>444.9879748236676</v>
+        <v>442.5992871740646</v>
       </c>
       <c r="L38" t="n">
-        <v>527.7116917816704</v>
+        <v>803.8612318939382</v>
       </c>
       <c r="M38" t="n">
-        <v>623.5099599359442</v>
+        <v>1165.123176613812</v>
       </c>
       <c r="N38" t="n">
-        <v>905.1269560818949</v>
+        <v>1165.123176613812</v>
       </c>
       <c r="O38" t="n">
-        <v>977.6894409121186</v>
+        <v>1258.028610562106</v>
       </c>
       <c r="P38" t="n">
         <v>1338.951385631992</v>
@@ -7214,10 +7214,10 @@
         <v>1256.511578802861</v>
       </c>
       <c r="X38" t="n">
-        <v>1127.494525631952</v>
+        <v>1127.494525631953</v>
       </c>
       <c r="Y38" t="n">
-        <v>982.4921465821894</v>
+        <v>982.4921465821898</v>
       </c>
     </row>
     <row r="39">
@@ -7254,16 +7254,16 @@
         <v>29.19288442180797</v>
       </c>
       <c r="K39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="L39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="M39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="N39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="O39" t="n">
         <v>36.11675336931268</v>
@@ -7306,55 +7306,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.01729741587249</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="C40" t="n">
-        <v>46.01729741587249</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="D40" t="n">
-        <v>46.01729741587249</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="E40" t="n">
-        <v>46.01729741587249</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="F40" t="n">
-        <v>46.01729741587249</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="G40" t="n">
-        <v>101.8083661028586</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="H40" t="n">
-        <v>101.8083661028586</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="I40" t="n">
-        <v>101.8083661028586</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="J40" t="n">
-        <v>101.8083661028586</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="K40" t="n">
-        <v>101.8083661028586</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="L40" t="n">
-        <v>101.8083661028586</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="M40" t="n">
-        <v>101.8083661028586</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="N40" t="n">
-        <v>101.8083661028586</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="O40" t="n">
-        <v>101.8083661028586</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="P40" t="n">
-        <v>101.8083661028586</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="Q40" t="n">
-        <v>101.8083661028586</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="R40" t="n">
-        <v>101.8083661028586</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="S40" t="n">
         <v>125.8253588837063</v>
@@ -7372,10 +7372,10 @@
         <v>29.19288442180797</v>
       </c>
       <c r="X40" t="n">
-        <v>46.01729741587249</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.01729741587249</v>
+        <v>29.19288442180797</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>715.3890428585566</v>
       </c>
       <c r="D41" t="n">
-        <v>600.772864815498</v>
+        <v>600.7728648154982</v>
       </c>
       <c r="E41" t="n">
-        <v>459.3755726303292</v>
+        <v>459.3755726303295</v>
       </c>
       <c r="F41" t="n">
-        <v>293.558252439854</v>
+        <v>293.5582524398544</v>
       </c>
       <c r="G41" t="n">
         <v>120.5536166582396</v>
@@ -7406,37 +7406,37 @@
         <v>29.19288442180797</v>
       </c>
       <c r="I41" t="n">
-        <v>29.19288442180797</v>
+        <v>83.72603010379386</v>
       </c>
       <c r="J41" t="n">
-        <v>165.3770389807506</v>
+        <v>361.2064541202871</v>
       </c>
       <c r="K41" t="n">
-        <v>249.7361557676642</v>
+        <v>512.2416521210215</v>
       </c>
       <c r="L41" t="n">
-        <v>332.4598727256671</v>
+        <v>512.2416521210215</v>
       </c>
       <c r="M41" t="n">
-        <v>693.7218174455408</v>
+        <v>873.5035968408952</v>
       </c>
       <c r="N41" t="n">
-        <v>1054.983762165414</v>
+        <v>971.4556121339361</v>
       </c>
       <c r="O41" t="n">
-        <v>1147.889196113709</v>
+        <v>1064.36104608223</v>
       </c>
       <c r="P41" t="n">
-        <v>1228.811971183595</v>
+        <v>1145.283821152117</v>
       </c>
       <c r="Q41" t="n">
-        <v>1399.332518517129</v>
+        <v>1437.629704869841</v>
       </c>
       <c r="R41" t="n">
-        <v>1459.644221090399</v>
+        <v>1437.629704869841</v>
       </c>
       <c r="S41" t="n">
-        <v>1459.644221090399</v>
+        <v>1437.745818867902</v>
       </c>
       <c r="T41" t="n">
         <v>1459.644221090399</v>
@@ -7470,19 +7470,19 @@
         <v>29.19288442180797</v>
       </c>
       <c r="D42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="E42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="F42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="G42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="H42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="I42" t="n">
         <v>36.11675336931268</v>
@@ -7579,22 +7579,22 @@
         <v>29.19288442180797</v>
       </c>
       <c r="N43" t="n">
-        <v>110.3259016329355</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="O43" t="n">
-        <v>110.3259016329355</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="P43" t="n">
-        <v>110.3259016329355</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.3259016329355</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="R43" t="n">
-        <v>110.3259016329355</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="S43" t="n">
-        <v>110.3259016329355</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="T43" t="n">
         <v>125.8253588837063</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>840.4904359767106</v>
+        <v>840.4904359767114</v>
       </c>
       <c r="C44" t="n">
-        <v>715.3890428585569</v>
+        <v>715.3890428585576</v>
       </c>
       <c r="D44" t="n">
-        <v>600.7728648154982</v>
+        <v>600.7728648154989</v>
       </c>
       <c r="E44" t="n">
-        <v>459.3755726303294</v>
+        <v>459.3755726303297</v>
       </c>
       <c r="F44" t="n">
-        <v>293.5582524398541</v>
+        <v>293.5582524398544</v>
       </c>
       <c r="G44" t="n">
         <v>120.5536166582396</v>
@@ -7643,37 +7643,37 @@
         <v>29.19288442180797</v>
       </c>
       <c r="I44" t="n">
-        <v>29.19288442180797</v>
+        <v>83.72603010379386</v>
       </c>
       <c r="J44" t="n">
-        <v>132.5714334571342</v>
+        <v>361.2064541202871</v>
       </c>
       <c r="K44" t="n">
-        <v>485.4637823226723</v>
+        <v>722.4683988401607</v>
       </c>
       <c r="L44" t="n">
-        <v>846.7257270425459</v>
+        <v>805.1921157981634</v>
       </c>
       <c r="M44" t="n">
-        <v>846.7257270425459</v>
+        <v>900.9903839524369</v>
       </c>
       <c r="N44" t="n">
-        <v>944.677742335587</v>
+        <v>900.9903839524369</v>
       </c>
       <c r="O44" t="n">
-        <v>1037.583176283881</v>
+        <v>1226.807370072537</v>
       </c>
       <c r="P44" t="n">
-        <v>1118.505951353768</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="Q44" t="n">
-        <v>1284.724426491787</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="R44" t="n">
-        <v>1412.697754966279</v>
+        <v>1390.799352743783</v>
       </c>
       <c r="S44" t="n">
-        <v>1459.644221090399</v>
+        <v>1437.745818867902</v>
       </c>
       <c r="T44" t="n">
         <v>1459.644221090399</v>
@@ -7682,16 +7682,16 @@
         <v>1451.252897529258</v>
       </c>
       <c r="V44" t="n">
-        <v>1364.991781336784</v>
+        <v>1364.991781336785</v>
       </c>
       <c r="W44" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.511578802862</v>
       </c>
       <c r="X44" t="n">
-        <v>1127.494525631953</v>
+        <v>1127.494525631954</v>
       </c>
       <c r="Y44" t="n">
-        <v>982.4921465821901</v>
+        <v>982.4921465821909</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>29.19288442180797</v>
       </c>
       <c r="K45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="L45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="M45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="N45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="O45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="P45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="R45" t="n">
         <v>36.11675336931268</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.19288442180797</v>
+        <v>91.61339917308167</v>
       </c>
       <c r="C46" t="n">
-        <v>29.19288442180797</v>
+        <v>91.61339917308167</v>
       </c>
       <c r="D46" t="n">
-        <v>29.19288442180797</v>
+        <v>91.61339917308167</v>
       </c>
       <c r="E46" t="n">
-        <v>29.19288442180797</v>
+        <v>91.61339917308167</v>
       </c>
       <c r="F46" t="n">
-        <v>29.19288442180797</v>
+        <v>91.61339917308167</v>
       </c>
       <c r="G46" t="n">
-        <v>29.19288442180797</v>
+        <v>91.61339917308167</v>
       </c>
       <c r="H46" t="n">
-        <v>29.19288442180797</v>
+        <v>91.61339917308167</v>
       </c>
       <c r="I46" t="n">
-        <v>29.19288442180797</v>
+        <v>91.61339917308167</v>
       </c>
       <c r="J46" t="n">
-        <v>29.19288442180797</v>
+        <v>91.61339917308167</v>
       </c>
       <c r="K46" t="n">
-        <v>29.19288442180797</v>
+        <v>91.61339917308167</v>
       </c>
       <c r="L46" t="n">
-        <v>125.8253588837063</v>
+        <v>91.61339917308167</v>
       </c>
       <c r="M46" t="n">
-        <v>125.8253588837063</v>
+        <v>91.61339917308167</v>
       </c>
       <c r="N46" t="n">
         <v>125.8253588837063</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>137.6842716845294</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>95.03739323033766</v>
       </c>
       <c r="R11" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>110.1177504068043</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>138.7119396886107</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>100.5187404447679</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,13 +8939,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>70.58724579725192</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>168.6434343361249</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>177.0345771199976</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M26" t="n">
-        <v>467.4940748325458</v>
+        <v>358.6617520366522</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>168.4922963213918</v>
       </c>
       <c r="O26" t="n">
-        <v>361.5838067901665</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>334.6706564983419</v>
@@ -9896,7 +9896,7 @@
         <v>220.8075902863009</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10039,19 +10039,19 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P28" t="n">
-        <v>110.1177504068043</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>138.7119396886106</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,16 +10118,16 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>358.6617520366522</v>
       </c>
       <c r="N29" t="n">
-        <v>356.4862498762809</v>
+        <v>212.6452282198925</v>
       </c>
       <c r="O29" t="n">
-        <v>361.5838067901665</v>
+        <v>96.71296281316845</v>
       </c>
       <c r="P29" t="n">
-        <v>12.02989719889</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>220.8075902863009</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10267,28 +10267,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N31" t="n">
-        <v>93.91583427681479</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P31" t="n">
-        <v>110.1177504068043</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>133.1125373329147</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>72.08548658983489</v>
       </c>
       <c r="L32" t="n">
-        <v>371.8683694066225</v>
+        <v>371.8683694066227</v>
       </c>
       <c r="M32" t="n">
-        <v>467.4940748325458</v>
+        <v>358.6617520366522</v>
       </c>
       <c r="N32" t="n">
-        <v>454.8408013884635</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>62.48512528301815</v>
+        <v>295.5449045824818</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,10 +10422,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.53077703452832</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10510,7 +10510,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -10519,10 +10519,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q34" t="n">
         <v>67.95667671286152</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>249.0074347588166</v>
+        <v>63.43312945451039</v>
       </c>
       <c r="M35" t="n">
-        <v>268.1451278440404</v>
+        <v>240.6655073219764</v>
       </c>
       <c r="N35" t="n">
-        <v>265.9696256836692</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>27.23184479878238</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10741,16 +10741,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M37" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>279.6998261949091</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>281.351745214011</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>268.1451278440405</v>
       </c>
       <c r="N38" t="n">
-        <v>185.5201826797067</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>283.1708784343306</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>32.57717403463845</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,16 +10978,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M40" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>33.13697527638027</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>67.34957698365747</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>268.1451278440404</v>
+        <v>268.1451278440405</v>
       </c>
       <c r="N41" t="n">
-        <v>265.9696256836693</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>220.8075902863009</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11215,13 +11215,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11233,10 +11233,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>110.1177504068043</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>271.2456889683076</v>
+        <v>279.6998261949092</v>
       </c>
       <c r="L44" t="n">
-        <v>281.351745214011</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,13 +11309,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>235.2641941129348</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11458,10 +11458,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.86936004331397</v>
+        <v>165.2663860313839</v>
       </c>
       <c r="C11" t="n">
-        <v>80.13804573086156</v>
+        <v>148.5350717189314</v>
       </c>
       <c r="D11" t="n">
-        <v>69.75768280651732</v>
+        <v>113.467805489201</v>
       </c>
       <c r="E11" t="n">
         <v>164.6680117952763</v>
       </c>
       <c r="F11" t="n">
-        <v>188.8438395205297</v>
+        <v>120.4468135324597</v>
       </c>
       <c r="G11" t="n">
         <v>195.9592819557577</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.565094327417468</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>32.9921028574883</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>49.83909707221625</v>
+        <v>41.68617157443825</v>
       </c>
       <c r="W11" t="n">
-        <v>132.0800930405434</v>
+        <v>63.68306705247349</v>
       </c>
       <c r="X11" t="n">
         <v>152.4115751711582</v>
       </c>
       <c r="Y11" t="n">
-        <v>168.2370477912247</v>
+        <v>168.2370477912246</v>
       </c>
     </row>
     <row r="12">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.86936004331397</v>
+        <v>165.2663860313839</v>
       </c>
       <c r="C14" t="n">
-        <v>80.13804573086156</v>
+        <v>80.13804573086153</v>
       </c>
       <c r="D14" t="n">
-        <v>69.75768280651732</v>
+        <v>138.1547087945872</v>
       </c>
       <c r="E14" t="n">
         <v>164.6680117952763</v>
@@ -23507,7 +23507,7 @@
         <v>188.8438395205297</v>
       </c>
       <c r="G14" t="n">
-        <v>138.2802757928832</v>
+        <v>195.9592819557577</v>
       </c>
       <c r="H14" t="n">
         <v>115.1318174460265</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.565094327417471</v>
       </c>
       <c r="U14" t="n">
-        <v>32.9921028574883</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>110.0831975625082</v>
+        <v>82.83119992970451</v>
       </c>
       <c r="W14" t="n">
-        <v>132.0800930405434</v>
+        <v>63.68306705247349</v>
       </c>
       <c r="X14" t="n">
-        <v>152.4115751711582</v>
+        <v>84.01454918308829</v>
       </c>
       <c r="Y14" t="n">
-        <v>168.2370477912247</v>
+        <v>168.2370477912246</v>
       </c>
     </row>
     <row r="15">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>813469.6484372705</v>
+        <v>813469.6484372707</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>813469.6484372705</v>
+        <v>813469.6484372707</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>774404.5352849845</v>
+        <v>774404.5352849846</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>774404.5352849844</v>
+        <v>774404.5352849846</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>774404.5352849845</v>
+        <v>774404.5352849846</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>690332.9210923791</v>
+        <v>690332.9210923795</v>
       </c>
       <c r="C2" t="n">
-        <v>690332.9210923794</v>
+        <v>690332.9210923796</v>
       </c>
       <c r="D2" t="n">
-        <v>690332.9210923793</v>
+        <v>690332.9210923795</v>
       </c>
       <c r="E2" t="n">
         <v>593758.7975895797</v>
       </c>
       <c r="F2" t="n">
-        <v>593758.7975895795</v>
+        <v>593758.7975895797</v>
       </c>
       <c r="G2" t="n">
-        <v>691831.4973226965</v>
+        <v>691831.4973226964</v>
       </c>
       <c r="H2" t="n">
-        <v>691831.4973226966</v>
+        <v>691831.4973226964</v>
       </c>
       <c r="I2" t="n">
-        <v>691831.4973226966</v>
+        <v>691831.4973226964</v>
       </c>
       <c r="J2" t="n">
-        <v>691831.4973226964</v>
+        <v>691831.4973226961</v>
       </c>
       <c r="K2" t="n">
-        <v>691831.497322696</v>
+        <v>691831.4973226961</v>
       </c>
       <c r="L2" t="n">
         <v>691831.4973226963</v>
       </c>
       <c r="M2" t="n">
-        <v>691831.497322696</v>
+        <v>691831.4973226959</v>
       </c>
       <c r="N2" t="n">
+        <v>691831.4973226959</v>
+      </c>
+      <c r="O2" t="n">
         <v>691831.4973226958</v>
       </c>
-      <c r="O2" t="n">
-        <v>691831.4973226961</v>
-      </c>
       <c r="P2" t="n">
-        <v>691831.497322696</v>
+        <v>691831.4973226959</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>284205.3843039992</v>
+        <v>284205.3843039991</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>105664.0744324347</v>
       </c>
       <c r="M3" t="n">
-        <v>17695.67856363342</v>
+        <v>17695.67856363344</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>71148.02019750814</v>
+        <v>71148.02019750816</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>463552.1206356916</v>
       </c>
       <c r="E4" t="n">
-        <v>361458.676015374</v>
+        <v>361458.6760153741</v>
       </c>
       <c r="F4" t="n">
         <v>361458.676015374</v>
       </c>
       <c r="G4" t="n">
-        <v>426193.4292983836</v>
+        <v>426193.4292983838</v>
       </c>
       <c r="H4" t="n">
-        <v>426193.4292983836</v>
+        <v>426193.4292983838</v>
       </c>
       <c r="I4" t="n">
-        <v>426193.4292983836</v>
+        <v>426193.4292983838</v>
       </c>
       <c r="J4" t="n">
-        <v>434774.7393444277</v>
+        <v>434774.7393444278</v>
       </c>
       <c r="K4" t="n">
         <v>434774.7393444278</v>
       </c>
       <c r="L4" t="n">
-        <v>434774.7393444277</v>
+        <v>434774.7393444278</v>
       </c>
       <c r="M4" t="n">
-        <v>431062.8369613772</v>
+        <v>431062.8369613773</v>
       </c>
       <c r="N4" t="n">
-        <v>431062.8369613772</v>
+        <v>431062.8369613773</v>
       </c>
       <c r="O4" t="n">
-        <v>431062.8369613772</v>
+        <v>431062.8369613773</v>
       </c>
       <c r="P4" t="n">
         <v>431062.8369613773</v>
@@ -26500,16 +26500,16 @@
         <v>47341.26675884315</v>
       </c>
       <c r="M5" t="n">
+        <v>45042.30008022612</v>
+      </c>
+      <c r="N5" t="n">
         <v>45042.30008022613</v>
       </c>
-      <c r="N5" t="n">
-        <v>45042.30008022614</v>
-      </c>
       <c r="O5" t="n">
-        <v>45042.30008022614</v>
+        <v>45042.30008022613</v>
       </c>
       <c r="P5" t="n">
-        <v>45042.30008022614</v>
+        <v>45042.30008022613</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193153.2004566875</v>
+        <v>193148.7928795399</v>
       </c>
       <c r="C6" t="n">
-        <v>193153.2004566877</v>
+        <v>193148.79287954</v>
       </c>
       <c r="D6" t="n">
-        <v>193153.2004566876</v>
+        <v>193148.7928795399</v>
       </c>
       <c r="E6" t="n">
-        <v>-76844.29241305101</v>
+        <v>-77132.74152991299</v>
       </c>
       <c r="F6" t="n">
-        <v>207361.091890948</v>
+        <v>207072.6427740861</v>
       </c>
       <c r="G6" t="n">
-        <v>123931.1225667952</v>
+        <v>123931.122566795</v>
       </c>
       <c r="H6" t="n">
-        <v>229595.1969992301</v>
+        <v>229595.1969992297</v>
       </c>
       <c r="I6" t="n">
-        <v>229595.1969992301</v>
+        <v>229595.1969992297</v>
       </c>
       <c r="J6" t="n">
-        <v>43090.68287617335</v>
+        <v>43090.68287617288</v>
       </c>
       <c r="K6" t="n">
-        <v>209715.4912194251</v>
+        <v>209715.4912194252</v>
       </c>
       <c r="L6" t="n">
-        <v>104051.4167869907</v>
+        <v>104051.4167869905</v>
       </c>
       <c r="M6" t="n">
-        <v>198030.6817174592</v>
+        <v>198030.681717459</v>
       </c>
       <c r="N6" t="n">
         <v>215726.3602810925</v>
       </c>
       <c r="O6" t="n">
-        <v>144578.3400835846</v>
+        <v>144578.3400835842</v>
       </c>
       <c r="P6" t="n">
-        <v>215726.3602810926</v>
+        <v>215726.3602810925</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="F3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="G3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="H3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="I3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="J3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="K3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="L3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="M3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="N3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="O3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="P3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.8080476554409</v>
       </c>
     </row>
     <row r="4">
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.93502524688517</v>
+        <v>88.9350252468852</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>132.0800930405434</v>
       </c>
       <c r="M2" t="n">
-        <v>22.11959820454177</v>
+        <v>22.1195982045418</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.93502524688517</v>
+        <v>88.9350252468852</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.93502524688517</v>
+        <v>88.9350252468852</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28111,34 +28111,34 @@
         <v>218.4500239600112</v>
       </c>
       <c r="J11" t="n">
-        <v>138.7119396886106</v>
+        <v>138.7119396886107</v>
       </c>
       <c r="K11" t="n">
+        <v>202.5825307045832</v>
+      </c>
+      <c r="L11" t="n">
+        <v>159.5754064333818</v>
+      </c>
+      <c r="M11" t="n">
+        <v>214.7658150514812</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>217.6878698049957</v>
+      </c>
+      <c r="P11" t="n">
+        <v>161.3945396537015</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>73.60604110578728</v>
+      </c>
+      <c r="R11" t="n">
         <v>218.4500239600112</v>
       </c>
-      <c r="L11" t="n">
+      <c r="S11" t="n">
         <v>218.4500239600112</v>
-      </c>
-      <c r="M11" t="n">
-        <v>214.765815051481</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6.509015218510509</v>
-      </c>
-      <c r="O11" t="n">
-        <v>149.2908438169256</v>
-      </c>
-      <c r="P11" t="n">
-        <v>214.0216543386118</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>168.6434343361249</v>
-      </c>
-      <c r="R11" t="n">
-        <v>113.8687281338977</v>
-      </c>
-      <c r="S11" t="n">
-        <v>195.7140436393247</v>
       </c>
       <c r="T11" t="n">
         <v>218.4500239600112</v>
@@ -28187,34 +28187,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I12" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J12" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K12" t="n">
-        <v>95.90842290065683</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L12" t="n">
-        <v>83.3400259534659</v>
+        <v>135.5688827973805</v>
       </c>
       <c r="M12" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175255</v>
       </c>
       <c r="N12" t="n">
-        <v>66.06942948955182</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O12" t="n">
-        <v>82.32375190725108</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P12" t="n">
-        <v>85.11220969290976</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.286959983786</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R12" t="n">
-        <v>127.2394152081627</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S12" t="n">
         <v>164.5345187941275</v>
@@ -28263,7 +28263,7 @@
         <v>167.689771139254</v>
       </c>
       <c r="H13" t="n">
-        <v>159.857510195687</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="I13" t="n">
         <v>147.7494808688102</v>
@@ -28278,19 +28278,19 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M13" t="n">
-        <v>172.527318357923</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N13" t="n">
-        <v>148.0849413299441</v>
+        <v>162.3128602648848</v>
       </c>
       <c r="O13" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>174.0913696836792</v>
       </c>
       <c r="Q13" t="n">
-        <v>199.382387380808</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R13" t="n">
         <v>164.4066131828346</v>
@@ -28348,31 +28348,31 @@
         <v>188.0507309546109</v>
       </c>
       <c r="J14" t="n">
-        <v>207.1089656766805</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>200.8210168801251</v>
+        <v>57.40474696951206</v>
       </c>
       <c r="L14" t="n">
-        <v>159.5754064333817</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M14" t="n">
-        <v>214.765815051481</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N14" t="n">
-        <v>212.5903128911098</v>
+        <v>180.7865752566176</v>
       </c>
       <c r="O14" t="n">
-        <v>78.70359801967369</v>
+        <v>217.6878698049957</v>
       </c>
       <c r="P14" t="n">
-        <v>161.3945396537013</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="R14" t="n">
-        <v>182.2138048017995</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="S14" t="n">
         <v>218.4500239600112</v>
@@ -28409,7 +28409,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>198.3412804185601</v>
       </c>
       <c r="E15" t="n">
         <v>156.0334337071738</v>
@@ -28424,34 +28424,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I15" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J15" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K15" t="n">
-        <v>95.90842290065683</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L15" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346598</v>
       </c>
       <c r="M15" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175255</v>
       </c>
       <c r="N15" t="n">
-        <v>66.06942948955182</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O15" t="n">
-        <v>82.32375190725108</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P15" t="n">
-        <v>137.3410665368244</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q15" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R15" t="n">
-        <v>127.2394152081627</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S15" t="n">
         <v>164.5345187941275</v>
@@ -28497,10 +28497,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.689771139254</v>
+        <v>177.6199796389522</v>
       </c>
       <c r="H16" t="n">
-        <v>159.857510195687</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="I16" t="n">
         <v>147.7494808688102</v>
@@ -28515,22 +28515,22 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M16" t="n">
-        <v>172.527318357923</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N16" t="n">
-        <v>93.91583427681479</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O16" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P16" t="n">
-        <v>110.1177504068043</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q16" t="n">
-        <v>185.1544684458674</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R16" t="n">
-        <v>164.4066131828346</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="S16" t="n">
         <v>218.4500239600112</v>
@@ -28582,43 +28582,43 @@
         <v>333.5818414060377</v>
       </c>
       <c r="I17" t="n">
-        <v>188.0507309546109</v>
+        <v>253.6842407411427</v>
       </c>
       <c r="J17" t="n">
-        <v>138.7119396886106</v>
+        <v>138.7119396886107</v>
       </c>
       <c r="K17" t="n">
-        <v>157.9234874142799</v>
+        <v>157.92348741428</v>
       </c>
       <c r="L17" t="n">
-        <v>159.5754064333817</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M17" t="n">
-        <v>146.3687890634111</v>
+        <v>214.7658150514812</v>
       </c>
       <c r="N17" t="n">
-        <v>144.19328690304</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O17" t="n">
-        <v>217.6878698049956</v>
+        <v>217.6878698049957</v>
       </c>
       <c r="P17" t="n">
-        <v>161.3945396537013</v>
+        <v>161.3945396537015</v>
       </c>
       <c r="Q17" t="n">
-        <v>234.2769441226566</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R17" t="n">
-        <v>250.6108307898694</v>
+        <v>182.2138048017995</v>
       </c>
       <c r="S17" t="n">
-        <v>264.1110696273946</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T17" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4421268174995</v>
+        <v>319.8391528055694</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -28661,34 +28661,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I18" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J18" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K18" t="n">
-        <v>95.90842290065683</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L18" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346598</v>
       </c>
       <c r="M18" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175255</v>
       </c>
       <c r="N18" t="n">
-        <v>66.06942948955182</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O18" t="n">
-        <v>82.32375190725108</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P18" t="n">
-        <v>85.11220969290976</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q18" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R18" t="n">
-        <v>127.2394152081627</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S18" t="n">
         <v>164.5345187941275</v>
@@ -28752,16 +28752,16 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M19" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N19" t="n">
-        <v>93.91583427681479</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O19" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P19" t="n">
-        <v>110.1177504068043</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q19" t="n">
         <v>130.9853613927381</v>
@@ -28819,31 +28819,31 @@
         <v>333.5818414060377</v>
       </c>
       <c r="I20" t="n">
-        <v>188.0507309546109</v>
+        <v>256.4477569426808</v>
       </c>
       <c r="J20" t="n">
-        <v>204.3454494751423</v>
+        <v>138.7119396886107</v>
       </c>
       <c r="K20" t="n">
-        <v>226.3205134023498</v>
+        <v>157.92348741428</v>
       </c>
       <c r="L20" t="n">
-        <v>159.5754064333817</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M20" t="n">
-        <v>146.3687890634111</v>
+        <v>214.7658150514812</v>
       </c>
       <c r="N20" t="n">
-        <v>212.5903128911098</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O20" t="n">
-        <v>149.2908438169256</v>
+        <v>149.2908438169258</v>
       </c>
       <c r="P20" t="n">
-        <v>161.3945396537013</v>
+        <v>161.3945396537015</v>
       </c>
       <c r="Q20" t="n">
-        <v>168.6434343361249</v>
+        <v>212.2800486446214</v>
       </c>
       <c r="R20" t="n">
         <v>182.2138048017995</v>
@@ -28852,13 +28852,13 @@
         <v>195.7140436393247</v>
       </c>
       <c r="T20" t="n">
-        <v>289.4121442754985</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4421268174995</v>
+        <v>319.8391528055694</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
@@ -28898,34 +28898,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I21" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J21" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K21" t="n">
-        <v>95.90842290065683</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L21" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346598</v>
       </c>
       <c r="M21" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175255</v>
       </c>
       <c r="N21" t="n">
-        <v>66.06942948955182</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O21" t="n">
-        <v>82.32375190725108</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P21" t="n">
-        <v>85.11220969290976</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q21" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R21" t="n">
-        <v>127.2394152081627</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S21" t="n">
         <v>164.5345187941275</v>
@@ -28989,16 +28989,16 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M22" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N22" t="n">
-        <v>93.91583427681479</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O22" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P22" t="n">
-        <v>110.1177504068043</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q22" t="n">
         <v>130.9853613927381</v>
@@ -29059,37 +29059,37 @@
         <v>188.0507309546109</v>
       </c>
       <c r="J23" t="n">
-        <v>138.7119396886106</v>
+        <v>204.3454494751424</v>
       </c>
       <c r="K23" t="n">
-        <v>157.9234874142799</v>
+        <v>157.92348741428</v>
       </c>
       <c r="L23" t="n">
-        <v>225.2089162199134</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M23" t="n">
-        <v>146.3687890634111</v>
+        <v>214.7658150514812</v>
       </c>
       <c r="N23" t="n">
-        <v>144.19328690304</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O23" t="n">
-        <v>149.2908438169256</v>
+        <v>149.2908438169258</v>
       </c>
       <c r="P23" t="n">
-        <v>161.3945396537013</v>
+        <v>229.7915656417714</v>
       </c>
       <c r="Q23" t="n">
-        <v>237.0404603241948</v>
+        <v>237.0404603241949</v>
       </c>
       <c r="R23" t="n">
         <v>182.2138048017995</v>
       </c>
       <c r="S23" t="n">
-        <v>264.1110696273946</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T23" t="n">
-        <v>289.4121442754985</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U23" t="n">
         <v>251.4421268174995</v>
@@ -29135,34 +29135,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I24" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J24" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K24" t="n">
-        <v>95.90842290065683</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L24" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346598</v>
       </c>
       <c r="M24" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175255</v>
       </c>
       <c r="N24" t="n">
-        <v>66.06942948955182</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O24" t="n">
-        <v>82.32375190725108</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P24" t="n">
-        <v>85.11220969290976</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q24" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R24" t="n">
-        <v>127.2394152081627</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S24" t="n">
         <v>164.5345187941275</v>
@@ -29226,16 +29226,16 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M25" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N25" t="n">
-        <v>93.91583427681479</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O25" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P25" t="n">
-        <v>110.1177504068043</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q25" t="n">
         <v>130.9853613927381</v>
@@ -29293,7 +29293,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I26" t="n">
-        <v>203.3946573465571</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="J26" t="n">
         <v>221.0151182874286</v>
@@ -29302,10 +29302,10 @@
         <v>221.0151182874286</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>221.0151182874286</v>
@@ -29314,10 +29314,10 @@
         <v>221.0151182874286</v>
       </c>
       <c r="P26" t="n">
+        <v>57.55698656355519</v>
+      </c>
+      <c r="Q26" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>221.0151182874286</v>
@@ -29372,40 +29372,40 @@
         <v>108.160635135932</v>
       </c>
       <c r="I27" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J27" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K27" t="n">
-        <v>95.90842290065683</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L27" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346598</v>
       </c>
       <c r="M27" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175255</v>
       </c>
       <c r="N27" t="n">
-        <v>66.06942948955182</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O27" t="n">
-        <v>82.32375190725108</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P27" t="n">
-        <v>105.8962668943108</v>
+        <v>129.4895381394647</v>
       </c>
       <c r="Q27" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>127.2394152081627</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S27" t="n">
         <v>164.5345187941275</v>
       </c>
       <c r="T27" t="n">
-        <v>221.0151182874286</v>
+        <v>197.4218470422748</v>
       </c>
       <c r="U27" t="n">
         <v>221.0151182874286</v>
@@ -29448,40 +29448,40 @@
         <v>167.689771139254</v>
       </c>
       <c r="H28" t="n">
-        <v>221.0151182874286</v>
+        <v>159.857510195687</v>
       </c>
       <c r="I28" t="n">
-        <v>221.0151182874286</v>
+        <v>147.7494808688102</v>
       </c>
       <c r="J28" t="n">
         <v>109.6934180900282</v>
       </c>
       <c r="K28" t="n">
-        <v>102.5727324697714</v>
+        <v>150.4722874577682</v>
       </c>
       <c r="L28" t="n">
         <v>101.8051034503207</v>
       </c>
       <c r="M28" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>93.91583427681479</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q28" t="n">
-        <v>171.4345009243094</v>
+        <v>63.02868467987659</v>
       </c>
       <c r="R28" t="n">
         <v>164.4066131828346</v>
       </c>
       <c r="S28" t="n">
-        <v>218.8751278244474</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T28" t="n">
         <v>221.0151182874286</v>
@@ -29499,7 +29499,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="Y28" t="n">
-        <v>221.0151182874286</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="29">
@@ -29530,10 +29530,10 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I29" t="n">
+        <v>188.0507309546109</v>
+      </c>
+      <c r="J29" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>221.0151182874286</v>
@@ -29548,7 +29548,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="O29" t="n">
-        <v>221.0151182874286</v>
+        <v>52.57788100375731</v>
       </c>
       <c r="P29" t="n">
         <v>221.0151182874286</v>
@@ -29560,7 +29560,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="S29" t="n">
-        <v>215.6971412530888</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T29" t="n">
         <v>221.0151182874286</v>
@@ -29591,7 +29591,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>215.4029123739558</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
@@ -29609,34 +29609,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I30" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J30" t="n">
-        <v>101.1486090703221</v>
+        <v>145.525937516877</v>
       </c>
       <c r="K30" t="n">
-        <v>95.90842290065683</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L30" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346598</v>
       </c>
       <c r="M30" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175255</v>
       </c>
       <c r="N30" t="n">
-        <v>66.06942948955182</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O30" t="n">
-        <v>82.32375190725108</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>85.11220969290976</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q30" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R30" t="n">
-        <v>127.2394152081627</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S30" t="n">
         <v>164.5345187941275</v>
@@ -29670,7 +29670,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>221.0151182874286</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -29691,28 +29691,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J31" t="n">
-        <v>74.7117271143959</v>
+        <v>159.7329635410061</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L31" t="n">
+        <v>101.8051034503207</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>221.0151182874286</v>
       </c>
-      <c r="M31" t="n">
-        <v>108.3805416381107</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
       <c r="O31" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q31" t="n">
-        <v>130.9853613927381</v>
+        <v>63.02868467987659</v>
       </c>
       <c r="R31" t="n">
         <v>164.4066131828346</v>
@@ -29767,34 +29767,34 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I32" t="n">
-        <v>188.0507309546109</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="J32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="K32" t="n">
-        <v>221.0151182874286</v>
+        <v>85.83800082444509</v>
       </c>
       <c r="L32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="M32" t="n">
-        <v>112.1827954915348</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="N32" t="n">
-        <v>122.660566775246</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="O32" t="n">
-        <v>86.80571853390749</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="P32" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="R32" t="n">
-        <v>113.8687281338977</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="S32" t="n">
         <v>221.0151182874286</v>
@@ -29831,7 +29831,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>190.4897520212005</v>
       </c>
       <c r="E33" t="n">
         <v>156.0334337071738</v>
@@ -29846,34 +29846,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I33" t="n">
-        <v>78.29747578532815</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J33" t="n">
-        <v>101.1486090703221</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>95.90842290065683</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L33" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346598</v>
       </c>
       <c r="M33" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175255</v>
       </c>
       <c r="N33" t="n">
-        <v>66.06942948955182</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O33" t="n">
-        <v>82.32375190725108</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P33" t="n">
-        <v>129.4895381394646</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R33" t="n">
-        <v>127.2394152081627</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S33" t="n">
         <v>164.5345187941275</v>
@@ -29907,13 +29907,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3365529312023</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="D34" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>151.9925024609077</v>
       </c>
       <c r="F34" t="n">
         <v>146.1590214098045</v>
@@ -29928,31 +29928,31 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J34" t="n">
-        <v>74.7117271143959</v>
+        <v>74.71172711439591</v>
       </c>
       <c r="K34" t="n">
-        <v>102.5727324697714</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="L34" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>221.0151182874286</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N34" t="n">
-        <v>93.91583427681479</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P34" t="n">
-        <v>113.7632488462266</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>63.02868467987656</v>
+        <v>63.02868467987659</v>
       </c>
       <c r="R34" t="n">
-        <v>221.0151182874286</v>
+        <v>164.4066131828346</v>
       </c>
       <c r="S34" t="n">
         <v>218.8751278244474</v>
@@ -30010,10 +30010,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="K35" t="n">
-        <v>157.9234874142799</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="L35" t="n">
-        <v>243.1347164919704</v>
+        <v>96.14227697887138</v>
       </c>
       <c r="M35" t="n">
         <v>243.1347164919704</v>
@@ -30025,19 +30025,19 @@
         <v>243.1347164919704</v>
       </c>
       <c r="P35" t="n">
+        <v>161.3945396537015</v>
+      </c>
+      <c r="Q35" t="n">
         <v>243.1347164919704</v>
       </c>
-      <c r="Q35" t="n">
-        <v>141.4115895373425</v>
-      </c>
       <c r="R35" t="n">
-        <v>182.2138048017995</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="S35" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="T35" t="n">
-        <v>221.0151182874286</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="U35" t="n">
         <v>243.1347164919704</v>
@@ -30083,40 +30083,40 @@
         <v>108.160635135932</v>
       </c>
       <c r="I36" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J36" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K36" t="n">
-        <v>102.9022299183383</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L36" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346598</v>
       </c>
       <c r="M36" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175255</v>
       </c>
       <c r="N36" t="n">
-        <v>66.06942948955182</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O36" t="n">
-        <v>82.32375190725108</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P36" t="n">
-        <v>85.11220969290976</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q36" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R36" t="n">
-        <v>127.2394152081627</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S36" t="n">
         <v>164.5345187941275</v>
       </c>
       <c r="T36" t="n">
-        <v>197.4218470422748</v>
+        <v>204.4156540599563</v>
       </c>
       <c r="U36" t="n">
         <v>224.641496683099</v>
@@ -30147,7 +30147,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>243.1347164919704</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
         <v>146.9746241731992</v>
@@ -30165,25 +30165,25 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6934180900282</v>
+        <v>74.71172711439591</v>
       </c>
       <c r="K37" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L37" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>93.91583427681479</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O37" t="n">
-        <v>106.751788516009</v>
+        <v>204.3603485785326</v>
       </c>
       <c r="P37" t="n">
-        <v>113.5971604918769</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q37" t="n">
         <v>130.9853613927381</v>
@@ -30244,10 +30244,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="J38" t="n">
-        <v>138.7119396886106</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="K38" t="n">
-        <v>243.1347164919704</v>
+        <v>240.1384702968835</v>
       </c>
       <c r="L38" t="n">
         <v>243.1347164919704</v>
@@ -30256,10 +30256,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="N38" t="n">
+        <v>144.1932869030401</v>
+      </c>
+      <c r="O38" t="n">
         <v>243.1347164919704</v>
-      </c>
-      <c r="O38" t="n">
-        <v>222.5862830393738</v>
       </c>
       <c r="P38" t="n">
         <v>243.1347164919704</v>
@@ -30268,7 +30268,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="R38" t="n">
-        <v>182.2138048017995</v>
+        <v>113.8687281338978</v>
       </c>
       <c r="S38" t="n">
         <v>243.1347164919704</v>
@@ -30320,34 +30320,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I39" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J39" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K39" t="n">
-        <v>102.9022299183383</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L39" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346598</v>
       </c>
       <c r="M39" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175255</v>
       </c>
       <c r="N39" t="n">
-        <v>66.06942948955182</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O39" t="n">
-        <v>82.32375190725108</v>
+        <v>89.31755892493271</v>
       </c>
       <c r="P39" t="n">
-        <v>85.11220969290976</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q39" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R39" t="n">
-        <v>127.2394152081627</v>
+        <v>94.66224117352432</v>
       </c>
       <c r="S39" t="n">
         <v>164.5345187941275</v>
@@ -30393,7 +30393,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>224.0443859745935</v>
+        <v>167.689771139254</v>
       </c>
       <c r="H40" t="n">
         <v>159.857510195687</v>
@@ -30402,34 +30402,34 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J40" t="n">
-        <v>74.7117271143959</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>200.181292532295</v>
       </c>
       <c r="L40" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N40" t="n">
-        <v>93.91583427681479</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O40" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P40" t="n">
-        <v>110.1177504068043</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q40" t="n">
-        <v>63.02868467987656</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R40" t="n">
         <v>164.4066131828346</v>
       </c>
       <c r="S40" t="n">
-        <v>243.1347164919704</v>
+        <v>218.8751278244474</v>
       </c>
       <c r="T40" t="n">
         <v>227.4786990669493</v>
@@ -30444,7 +30444,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="X40" t="n">
-        <v>243.1347164919704</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -30478,7 +30478,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="I41" t="n">
-        <v>188.0507309546109</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="J41" t="n">
         <v>243.1347164919704</v>
@@ -30487,7 +30487,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="L41" t="n">
-        <v>243.1347164919704</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M41" t="n">
         <v>243.1347164919704</v>
@@ -30502,16 +30502,16 @@
         <v>243.1347164919704</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.0788211544042</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="R41" t="n">
+        <v>113.8687281338978</v>
+      </c>
+      <c r="S41" t="n">
+        <v>195.8313305060528</v>
+      </c>
+      <c r="T41" t="n">
         <v>243.1347164919704</v>
-      </c>
-      <c r="S41" t="n">
-        <v>195.7140436393247</v>
-      </c>
-      <c r="T41" t="n">
-        <v>221.0151182874286</v>
       </c>
       <c r="U41" t="n">
         <v>243.1347164919704</v>
@@ -30542,7 +30542,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>153.1062305923271</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
         <v>156.0334337071738</v>
@@ -30557,34 +30557,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I42" t="n">
-        <v>88.82825281985647</v>
+        <v>95.82205983753801</v>
       </c>
       <c r="J42" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K42" t="n">
-        <v>95.90842290065683</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L42" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346598</v>
       </c>
       <c r="M42" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175255</v>
       </c>
       <c r="N42" t="n">
-        <v>66.06942948955182</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O42" t="n">
-        <v>82.32375190725108</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P42" t="n">
-        <v>85.11220969290976</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q42" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R42" t="n">
-        <v>127.2394152081627</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S42" t="n">
         <v>164.5345187941275</v>
@@ -30639,28 +30639,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6934180900282</v>
+        <v>74.71172711439591</v>
       </c>
       <c r="K43" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L43" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N43" t="n">
-        <v>175.8683769143173</v>
+        <v>191.5243943393384</v>
       </c>
       <c r="O43" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.02868467987656</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R43" t="n">
         <v>164.4066131828346</v>
@@ -30669,7 +30669,7 @@
         <v>218.8751278244474</v>
       </c>
       <c r="T43" t="n">
-        <v>243.1347164919704</v>
+        <v>227.4786990669493</v>
       </c>
       <c r="U43" t="n">
         <v>243.1347164919704</v>
@@ -30715,7 +30715,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="I44" t="n">
-        <v>188.0507309546109</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="J44" t="n">
         <v>243.1347164919704</v>
@@ -30727,19 +30727,19 @@
         <v>243.1347164919704</v>
       </c>
       <c r="M44" t="n">
-        <v>146.3687890634111</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="N44" t="n">
-        <v>243.1347164919704</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O44" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="P44" t="n">
-        <v>243.1347164919704</v>
+        <v>197.7770186403223</v>
       </c>
       <c r="Q44" t="n">
-        <v>115.7332936841875</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R44" t="n">
         <v>243.1347164919704</v>
@@ -30748,7 +30748,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="T44" t="n">
-        <v>221.0151182874286</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="U44" t="n">
         <v>243.1347164919704</v>
@@ -30794,34 +30794,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I45" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J45" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K45" t="n">
-        <v>102.9022299183383</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L45" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346598</v>
       </c>
       <c r="M45" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175255</v>
       </c>
       <c r="N45" t="n">
-        <v>66.06942948955182</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O45" t="n">
-        <v>82.32375190725108</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P45" t="n">
-        <v>85.11220969290976</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q45" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R45" t="n">
-        <v>127.2394152081627</v>
+        <v>134.2332222258443</v>
       </c>
       <c r="S45" t="n">
         <v>164.5345187941275</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
@@ -30882,22 +30882,22 @@
         <v>102.5727324697714</v>
       </c>
       <c r="L46" t="n">
-        <v>199.4136635128443</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>93.91583427681479</v>
+        <v>128.4733693380519</v>
       </c>
       <c r="O46" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P46" t="n">
-        <v>110.1177504068043</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.9853613927381</v>
+        <v>63.02868467987659</v>
       </c>
       <c r="R46" t="n">
         <v>164.4066131828346</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620738</v>
       </c>
       <c r="H11" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115715</v>
       </c>
       <c r="I11" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J11" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K11" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L11" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235577</v>
       </c>
       <c r="M11" t="n">
-        <v>78.21878833317982</v>
+        <v>78.21878833317967</v>
       </c>
       <c r="N11" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363605</v>
       </c>
       <c r="O11" t="n">
-        <v>75.05491231921893</v>
+        <v>75.0549123192188</v>
       </c>
       <c r="P11" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768634</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146331</v>
       </c>
       <c r="R11" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697927</v>
       </c>
       <c r="S11" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T11" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H12" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I12" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143505</v>
       </c>
       <c r="J12" t="n">
-        <v>22.51807692967791</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K12" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L12" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M12" t="n">
-        <v>60.39038597221541</v>
+        <v>60.39038597221531</v>
       </c>
       <c r="N12" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O12" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P12" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606216</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R12" t="n">
-        <v>14.79810115670213</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S12" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938697</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H13" t="n">
-        <v>1.776561813229861</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I13" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593421</v>
       </c>
       <c r="J13" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K13" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L13" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388658</v>
       </c>
       <c r="M13" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906177</v>
       </c>
       <c r="N13" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678752</v>
       </c>
       <c r="O13" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P13" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111452</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R13" t="n">
-        <v>8.984534486947732</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S13" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583152</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620738</v>
       </c>
       <c r="H14" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115715</v>
       </c>
       <c r="I14" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J14" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K14" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L14" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235577</v>
       </c>
       <c r="M14" t="n">
-        <v>78.21878833317982</v>
+        <v>78.21878833317967</v>
       </c>
       <c r="N14" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363605</v>
       </c>
       <c r="O14" t="n">
-        <v>75.05491231921893</v>
+        <v>75.0549123192188</v>
       </c>
       <c r="P14" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768634</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146331</v>
       </c>
       <c r="R14" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697927</v>
       </c>
       <c r="S14" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T14" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H15" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I15" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143505</v>
       </c>
       <c r="J15" t="n">
-        <v>22.51807692967791</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K15" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L15" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M15" t="n">
-        <v>60.39038597221541</v>
+        <v>60.39038597221531</v>
       </c>
       <c r="N15" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O15" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P15" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606216</v>
       </c>
       <c r="Q15" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R15" t="n">
-        <v>14.79810115670213</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S15" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938697</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H16" t="n">
-        <v>1.776561813229861</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I16" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593421</v>
       </c>
       <c r="J16" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K16" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L16" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388658</v>
       </c>
       <c r="M16" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906177</v>
       </c>
       <c r="N16" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678752</v>
       </c>
       <c r="O16" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P16" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111452</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R16" t="n">
-        <v>8.984534486947732</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S16" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583152</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620738</v>
       </c>
       <c r="H17" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115715</v>
       </c>
       <c r="I17" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J17" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K17" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L17" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235577</v>
       </c>
       <c r="M17" t="n">
-        <v>78.21878833317982</v>
+        <v>78.21878833317967</v>
       </c>
       <c r="N17" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363605</v>
       </c>
       <c r="O17" t="n">
-        <v>75.05491231921893</v>
+        <v>75.0549123192188</v>
       </c>
       <c r="P17" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768634</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146331</v>
       </c>
       <c r="R17" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697927</v>
       </c>
       <c r="S17" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T17" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H18" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I18" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143505</v>
       </c>
       <c r="J18" t="n">
-        <v>22.51807692967791</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K18" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L18" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M18" t="n">
-        <v>60.39038597221541</v>
+        <v>60.39038597221531</v>
       </c>
       <c r="N18" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O18" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P18" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606216</v>
       </c>
       <c r="Q18" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R18" t="n">
-        <v>14.79810115670213</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S18" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938697</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H19" t="n">
-        <v>1.776561813229861</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I19" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593421</v>
       </c>
       <c r="J19" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K19" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L19" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388658</v>
       </c>
       <c r="M19" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906177</v>
       </c>
       <c r="N19" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678752</v>
       </c>
       <c r="O19" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P19" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111452</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R19" t="n">
-        <v>8.984534486947732</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S19" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583152</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620738</v>
       </c>
       <c r="H20" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115715</v>
       </c>
       <c r="I20" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J20" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K20" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L20" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235577</v>
       </c>
       <c r="M20" t="n">
-        <v>78.21878833317982</v>
+        <v>78.21878833317967</v>
       </c>
       <c r="N20" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363605</v>
       </c>
       <c r="O20" t="n">
-        <v>75.05491231921893</v>
+        <v>75.0549123192188</v>
       </c>
       <c r="P20" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768634</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146331</v>
       </c>
       <c r="R20" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697927</v>
       </c>
       <c r="S20" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T20" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H21" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I21" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143505</v>
       </c>
       <c r="J21" t="n">
-        <v>22.51807692967791</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K21" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L21" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M21" t="n">
-        <v>60.39038597221541</v>
+        <v>60.39038597221531</v>
       </c>
       <c r="N21" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O21" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P21" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606216</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R21" t="n">
-        <v>14.79810115670213</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S21" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938697</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H22" t="n">
-        <v>1.776561813229861</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I22" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593421</v>
       </c>
       <c r="J22" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K22" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L22" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388658</v>
       </c>
       <c r="M22" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906177</v>
       </c>
       <c r="N22" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678752</v>
       </c>
       <c r="O22" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P22" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111452</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R22" t="n">
-        <v>8.984534486947732</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S22" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583152</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620738</v>
       </c>
       <c r="H23" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115715</v>
       </c>
       <c r="I23" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J23" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K23" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L23" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235577</v>
       </c>
       <c r="M23" t="n">
-        <v>78.21878833317982</v>
+        <v>78.21878833317967</v>
       </c>
       <c r="N23" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363605</v>
       </c>
       <c r="O23" t="n">
-        <v>75.05491231921893</v>
+        <v>75.0549123192188</v>
       </c>
       <c r="P23" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768634</v>
       </c>
       <c r="Q23" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146331</v>
       </c>
       <c r="R23" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697927</v>
       </c>
       <c r="S23" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T23" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H24" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I24" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143505</v>
       </c>
       <c r="J24" t="n">
-        <v>22.51807692967791</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K24" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L24" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M24" t="n">
-        <v>60.39038597221541</v>
+        <v>60.39038597221531</v>
       </c>
       <c r="N24" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O24" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P24" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606216</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R24" t="n">
-        <v>14.79810115670213</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S24" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938697</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H25" t="n">
-        <v>1.776561813229861</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I25" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593421</v>
       </c>
       <c r="J25" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K25" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L25" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388658</v>
       </c>
       <c r="M25" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906177</v>
       </c>
       <c r="N25" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678752</v>
       </c>
       <c r="O25" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P25" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111452</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R25" t="n">
-        <v>8.984534486947732</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S25" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583152</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620738</v>
       </c>
       <c r="H26" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115715</v>
       </c>
       <c r="I26" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J26" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K26" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L26" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235577</v>
       </c>
       <c r="M26" t="n">
-        <v>78.21878833317982</v>
+        <v>78.21878833317967</v>
       </c>
       <c r="N26" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363605</v>
       </c>
       <c r="O26" t="n">
-        <v>75.05491231921893</v>
+        <v>75.0549123192188</v>
       </c>
       <c r="P26" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768634</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146331</v>
       </c>
       <c r="R26" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697927</v>
       </c>
       <c r="S26" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T26" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H27" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I27" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143505</v>
       </c>
       <c r="J27" t="n">
-        <v>22.51807692967791</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K27" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L27" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M27" t="n">
-        <v>60.39038597221541</v>
+        <v>60.39038597221531</v>
       </c>
       <c r="N27" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O27" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P27" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606216</v>
       </c>
       <c r="Q27" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R27" t="n">
-        <v>14.79810115670213</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S27" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938697</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H28" t="n">
-        <v>1.776561813229861</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I28" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593421</v>
       </c>
       <c r="J28" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K28" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L28" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388658</v>
       </c>
       <c r="M28" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906177</v>
       </c>
       <c r="N28" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678752</v>
       </c>
       <c r="O28" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P28" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111452</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R28" t="n">
-        <v>8.984534486947732</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S28" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583152</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620738</v>
       </c>
       <c r="H29" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115715</v>
       </c>
       <c r="I29" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J29" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K29" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L29" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235577</v>
       </c>
       <c r="M29" t="n">
-        <v>78.21878833317982</v>
+        <v>78.21878833317967</v>
       </c>
       <c r="N29" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363605</v>
       </c>
       <c r="O29" t="n">
-        <v>75.05491231921893</v>
+        <v>75.0549123192188</v>
       </c>
       <c r="P29" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768634</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146331</v>
       </c>
       <c r="R29" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697927</v>
       </c>
       <c r="S29" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T29" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H30" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I30" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143505</v>
       </c>
       <c r="J30" t="n">
-        <v>22.51807692967791</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K30" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L30" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M30" t="n">
-        <v>60.39038597221541</v>
+        <v>60.39038597221531</v>
       </c>
       <c r="N30" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O30" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P30" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606216</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R30" t="n">
-        <v>14.79810115670213</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S30" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938697</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H31" t="n">
-        <v>1.776561813229861</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I31" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593421</v>
       </c>
       <c r="J31" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K31" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L31" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388658</v>
       </c>
       <c r="M31" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906177</v>
       </c>
       <c r="N31" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678752</v>
       </c>
       <c r="O31" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P31" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111452</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R31" t="n">
-        <v>8.984534486947732</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S31" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583152</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620738</v>
       </c>
       <c r="H32" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115715</v>
       </c>
       <c r="I32" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J32" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K32" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L32" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235577</v>
       </c>
       <c r="M32" t="n">
-        <v>78.21878833317982</v>
+        <v>78.21878833317967</v>
       </c>
       <c r="N32" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363605</v>
       </c>
       <c r="O32" t="n">
-        <v>75.05491231921893</v>
+        <v>75.0549123192188</v>
       </c>
       <c r="P32" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768634</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146331</v>
       </c>
       <c r="R32" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697927</v>
       </c>
       <c r="S32" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T32" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H33" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I33" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143505</v>
       </c>
       <c r="J33" t="n">
-        <v>22.51807692967791</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K33" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L33" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M33" t="n">
-        <v>60.39038597221541</v>
+        <v>60.39038597221531</v>
       </c>
       <c r="N33" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O33" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P33" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606216</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R33" t="n">
-        <v>14.79810115670213</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S33" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938697</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H34" t="n">
-        <v>1.776561813229861</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I34" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593421</v>
       </c>
       <c r="J34" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K34" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L34" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388658</v>
       </c>
       <c r="M34" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906177</v>
       </c>
       <c r="N34" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678752</v>
       </c>
       <c r="O34" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P34" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111452</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R34" t="n">
-        <v>8.984534486947732</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S34" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583152</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620738</v>
       </c>
       <c r="H35" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115715</v>
       </c>
       <c r="I35" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J35" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K35" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L35" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235577</v>
       </c>
       <c r="M35" t="n">
-        <v>78.21878833317982</v>
+        <v>78.21878833317967</v>
       </c>
       <c r="N35" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363605</v>
       </c>
       <c r="O35" t="n">
-        <v>75.05491231921893</v>
+        <v>75.0549123192188</v>
       </c>
       <c r="P35" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768634</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146331</v>
       </c>
       <c r="R35" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697927</v>
       </c>
       <c r="S35" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T35" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H36" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I36" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143505</v>
       </c>
       <c r="J36" t="n">
-        <v>22.51807692967791</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K36" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L36" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M36" t="n">
-        <v>60.39038597221541</v>
+        <v>60.39038597221531</v>
       </c>
       <c r="N36" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O36" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P36" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606216</v>
       </c>
       <c r="Q36" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R36" t="n">
-        <v>14.79810115670213</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S36" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938697</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H37" t="n">
-        <v>1.776561813229861</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I37" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593421</v>
       </c>
       <c r="J37" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K37" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L37" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388658</v>
       </c>
       <c r="M37" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906177</v>
       </c>
       <c r="N37" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678752</v>
       </c>
       <c r="O37" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P37" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111452</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R37" t="n">
-        <v>8.984534486947732</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S37" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583152</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620738</v>
       </c>
       <c r="H38" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115715</v>
       </c>
       <c r="I38" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J38" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K38" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L38" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235577</v>
       </c>
       <c r="M38" t="n">
-        <v>78.21878833317982</v>
+        <v>78.21878833317967</v>
       </c>
       <c r="N38" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363605</v>
       </c>
       <c r="O38" t="n">
-        <v>75.05491231921893</v>
+        <v>75.0549123192188</v>
       </c>
       <c r="P38" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768634</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146331</v>
       </c>
       <c r="R38" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697927</v>
       </c>
       <c r="S38" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T38" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H39" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I39" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143505</v>
       </c>
       <c r="J39" t="n">
-        <v>22.51807692967791</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K39" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L39" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M39" t="n">
-        <v>60.39038597221541</v>
+        <v>60.39038597221531</v>
       </c>
       <c r="N39" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O39" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P39" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606216</v>
       </c>
       <c r="Q39" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R39" t="n">
-        <v>14.79810115670213</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S39" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938697</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H40" t="n">
-        <v>1.776561813229861</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I40" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593421</v>
       </c>
       <c r="J40" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K40" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L40" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388658</v>
       </c>
       <c r="M40" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906177</v>
       </c>
       <c r="N40" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678752</v>
       </c>
       <c r="O40" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P40" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111452</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R40" t="n">
-        <v>8.984534486947732</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S40" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583152</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620738</v>
       </c>
       <c r="H41" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115715</v>
       </c>
       <c r="I41" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J41" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K41" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L41" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235577</v>
       </c>
       <c r="M41" t="n">
-        <v>78.21878833317982</v>
+        <v>78.21878833317967</v>
       </c>
       <c r="N41" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363605</v>
       </c>
       <c r="O41" t="n">
-        <v>75.05491231921893</v>
+        <v>75.0549123192188</v>
       </c>
       <c r="P41" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768634</v>
       </c>
       <c r="Q41" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146331</v>
       </c>
       <c r="R41" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697927</v>
       </c>
       <c r="S41" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T41" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H42" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I42" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143505</v>
       </c>
       <c r="J42" t="n">
-        <v>22.51807692967791</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K42" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L42" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M42" t="n">
-        <v>60.39038597221541</v>
+        <v>60.39038597221531</v>
       </c>
       <c r="N42" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O42" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P42" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606216</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R42" t="n">
-        <v>14.79810115670213</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S42" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938697</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H43" t="n">
-        <v>1.776561813229861</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I43" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593421</v>
       </c>
       <c r="J43" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K43" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L43" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388658</v>
       </c>
       <c r="M43" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906177</v>
       </c>
       <c r="N43" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678752</v>
       </c>
       <c r="O43" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P43" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111452</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R43" t="n">
-        <v>8.984534486947732</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S43" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583152</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620738</v>
       </c>
       <c r="H44" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115715</v>
       </c>
       <c r="I44" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J44" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K44" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L44" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235577</v>
       </c>
       <c r="M44" t="n">
-        <v>78.21878833317982</v>
+        <v>78.21878833317967</v>
       </c>
       <c r="N44" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363605</v>
       </c>
       <c r="O44" t="n">
-        <v>75.05491231921893</v>
+        <v>75.0549123192188</v>
       </c>
       <c r="P44" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768634</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146331</v>
       </c>
       <c r="R44" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697927</v>
       </c>
       <c r="S44" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T44" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.238341838353213</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H45" t="n">
-        <v>2.301880386200768</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I45" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143505</v>
       </c>
       <c r="J45" t="n">
-        <v>22.51807692967791</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K45" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L45" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M45" t="n">
-        <v>60.39038597221541</v>
+        <v>60.39038597221531</v>
       </c>
       <c r="N45" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O45" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P45" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606216</v>
       </c>
       <c r="Q45" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R45" t="n">
-        <v>14.79810115670213</v>
+        <v>14.7981011567021</v>
       </c>
       <c r="S45" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938697</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01568038410218507</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H46" t="n">
-        <v>1.776561813229861</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I46" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593421</v>
       </c>
       <c r="J46" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K46" t="n">
-        <v>23.21519424650061</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L46" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388658</v>
       </c>
       <c r="M46" t="n">
-        <v>31.32234697906182</v>
+        <v>31.32234697906177</v>
       </c>
       <c r="N46" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678752</v>
       </c>
       <c r="O46" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P46" t="n">
-        <v>24.16705354111456</v>
+        <v>24.16705354111452</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.73201519597161</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R46" t="n">
-        <v>8.984534486947732</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S46" t="n">
-        <v>3.482279136975091</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583152</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>60.52653654573128</v>
+        <v>44.65904329030327</v>
       </c>
       <c r="L11" t="n">
-        <v>58.87461752662949</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>68.39702598806991</v>
@@ -35422,19 +35422,19 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="P11" t="n">
-        <v>52.62711468491049</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>36.23621915821164</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>22.73598032068646</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>52.22885684391455</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.22885684391466</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35559,7 +35559,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>58.5925137643242</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35574,19 +35574,19 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="N13" t="n">
-        <v>54.16910705312932</v>
-      </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>63.9736192768748</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,34 +35644,34 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>36.59328835357751</v>
+      </c>
+      <c r="O14" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="K14" t="n">
-        <v>42.89752946584529</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>68.39702598806991</v>
-      </c>
-      <c r="N14" t="n">
-        <v>68.39702598806991</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>57.05548430630972</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>49.80658962388624</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>36.23621915821164</v>
       </c>
       <c r="S14" t="n">
-        <v>22.73598032068645</v>
+        <v>22.73598032068646</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35705,7 +35705,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>52.22885684391455</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>52.22885684391465</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35793,10 +35793,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.930208499698214</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>58.5925137643242</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35823,10 +35823,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.16910705312932</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.0434107771766</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>65.63350978653176</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35902,19 +35902,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.63350978653176</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>68.39702598806991</v>
-      </c>
-      <c r="S17" t="n">
-        <v>68.39702598806991</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36115,46 +36115,46 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="J20" t="n">
-        <v>65.63350978653176</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
       <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>43.63661430849646</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>68.39702598806991</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>21.99689547803524</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>65.63350978653175</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>65.63350978653175</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="Q23" t="n">
         <v>68.39702598806993</v>
@@ -36382,10 +36382,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>15.34392639194626</v>
+        <v>32.96438733281771</v>
       </c>
       <c r="J26" t="n">
-        <v>82.30317859881802</v>
+        <v>258.1636583777747</v>
       </c>
       <c r="K26" t="n">
-        <v>63.09163087314874</v>
+        <v>63.09163087314863</v>
       </c>
       <c r="L26" t="n">
-        <v>238.4742889740445</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>321.1252857691347</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="N26" t="n">
-        <v>76.82183138438864</v>
+        <v>245.3141277057803</v>
       </c>
       <c r="O26" t="n">
-        <v>433.3080812606695</v>
+        <v>71.72427447050285</v>
       </c>
       <c r="P26" t="n">
-        <v>394.2912351320692</v>
+        <v>230.8331034081957</v>
       </c>
       <c r="Q26" t="n">
-        <v>52.16415595017601</v>
+        <v>273.1792742376045</v>
       </c>
       <c r="R26" t="n">
-        <v>38.80131348562912</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>20.78405720140103</v>
+        <v>44.37732844655483</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36701,7 +36701,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>23.5932712451538</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -36744,16 +36744,16 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>61.15760809174164</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>73.26563741861841</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>47.89955498799683</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>127.0992840106138</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36771,13 +36771,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.44913953157132</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>2.139990462981165</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -36795,7 +36795,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.266444419660388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>32.96438733281774</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>258.1636583777747</v>
       </c>
       <c r="K29" t="n">
-        <v>63.09163087314874</v>
+        <v>63.09163087314863</v>
       </c>
       <c r="L29" t="n">
-        <v>274.7922566990867</v>
+        <v>274.7922566990866</v>
       </c>
       <c r="M29" t="n">
-        <v>74.64632922401751</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="N29" t="n">
-        <v>433.3080812606695</v>
+        <v>289.467059604281</v>
       </c>
       <c r="O29" t="n">
-        <v>433.3080812606695</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>71.65047583261726</v>
+        <v>59.62057863372715</v>
       </c>
       <c r="Q29" t="n">
-        <v>273.1792742376046</v>
+        <v>273.1792742376045</v>
       </c>
       <c r="R29" t="n">
-        <v>38.80131348562912</v>
+        <v>38.80131348562907</v>
       </c>
       <c r="S29" t="n">
-        <v>19.98309761376413</v>
+        <v>25.30107464810389</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36887,28 +36887,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>44.37732844655483</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36966,7 +36966,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>53.67856535622627</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>50.03954545097798</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>119.2100148371079</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>4.250249268257579</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>127.0992840106138</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37063,13 +37063,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>32.96438733281768</v>
       </c>
       <c r="J32" t="n">
-        <v>215.4157159317328</v>
+        <v>82.30317859881791</v>
       </c>
       <c r="K32" t="n">
-        <v>63.09163087314874</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>433.3080812606695</v>
@@ -37078,22 +37078,22 @@
         <v>433.3080812606695</v>
       </c>
       <c r="N32" t="n">
-        <v>433.3080812606695</v>
+        <v>76.82183138438847</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>367.2691790529846</v>
       </c>
       <c r="P32" t="n">
-        <v>59.62057863372726</v>
+        <v>173.2761168446405</v>
       </c>
       <c r="Q32" t="n">
-        <v>52.37168395130375</v>
+        <v>52.37168395130364</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>38.80131348562904</v>
       </c>
       <c r="S32" t="n">
-        <v>25.30107464810391</v>
+        <v>25.30107464810386</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37127,7 +37127,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>44.37732844655492</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37203,13 +37203,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>53.67856535622624</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>5.017878287708514</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37227,13 +37227,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>118.4423858176572</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>116.8848259175755</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37242,13 +37242,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>3.645498439422223</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>56.60850510459404</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>55.08398553735951</v>
+        <v>55.08398553735948</v>
       </c>
       <c r="J35" t="n">
-        <v>104.4227768033598</v>
+        <v>280.2832565823164</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>85.2112290776904</v>
       </c>
       <c r="L35" t="n">
-        <v>332.5667448174053</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>364.9110552725996</v>
+        <v>337.4314347505356</v>
       </c>
       <c r="N35" t="n">
-        <v>364.9110552725996</v>
+        <v>98.94142958893028</v>
       </c>
       <c r="O35" t="n">
-        <v>93.84387267504475</v>
+        <v>93.84387267504462</v>
       </c>
       <c r="P35" t="n">
-        <v>81.74017683826904</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>295.2988724421463</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>129.2659883580726</v>
       </c>
       <c r="S35" t="n">
-        <v>47.42067285264568</v>
+        <v>47.42067285264567</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>22.11959820454176</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,34 +37385,34 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
         <v>6.993807017681523</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>94.12914997745102</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>97.60856006252358</v>
       </c>
       <c r="P37" t="n">
-        <v>3.479410085072552</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>55.08398553735951</v>
+        <v>55.08398553735948</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>280.2832565823164</v>
       </c>
       <c r="K38" t="n">
+        <v>82.21498288260349</v>
+      </c>
+      <c r="L38" t="n">
         <v>364.9110552725996</v>
       </c>
-      <c r="L38" t="n">
-        <v>83.55931005858872</v>
-      </c>
       <c r="M38" t="n">
-        <v>96.76592742855928</v>
+        <v>364.9110552725996</v>
       </c>
       <c r="N38" t="n">
-        <v>284.4616122686372</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>73.29543922244817</v>
+        <v>93.84387267504462</v>
       </c>
       <c r="P38" t="n">
-        <v>364.9110552725996</v>
+        <v>81.74017683826892</v>
       </c>
       <c r="Q38" t="n">
-        <v>74.49128215584552</v>
+        <v>74.49128215584544</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.42067285264568</v>
+        <v>47.42067285264567</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>6.99380701768152</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37689,7 +37689,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>56.3546148353395</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>97.60856006252358</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.25958866752294</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37740,7 +37740,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>16.99435655966113</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>55.08398553735948</v>
       </c>
       <c r="J41" t="n">
-        <v>137.5597520797401</v>
+        <v>280.2832565823164</v>
       </c>
       <c r="K41" t="n">
-        <v>85.21122907769052</v>
+        <v>152.5608060613479</v>
       </c>
       <c r="L41" t="n">
-        <v>83.55931005858872</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>364.9110552725996</v>
       </c>
       <c r="N41" t="n">
-        <v>364.9110552725996</v>
+        <v>98.94142958893028</v>
       </c>
       <c r="O41" t="n">
-        <v>93.84387267504475</v>
+        <v>93.84387267504462</v>
       </c>
       <c r="P41" t="n">
-        <v>81.74017683826904</v>
+        <v>81.74017683826892</v>
       </c>
       <c r="Q41" t="n">
-        <v>172.2429771045802</v>
+        <v>295.2988724421463</v>
       </c>
       <c r="R41" t="n">
-        <v>60.92091169017089</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>0.1172868667281186</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>22.11959820454176</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37838,22 +37838,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>6.99380701768152</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>81.95254263750253</v>
+        <v>97.60856006252358</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -37965,7 +37965,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>15.65601742502104</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>55.08398553735948</v>
       </c>
       <c r="J44" t="n">
-        <v>104.4227768033598</v>
+        <v>280.2832565823164</v>
       </c>
       <c r="K44" t="n">
-        <v>356.4569180459981</v>
+        <v>364.9110552725996</v>
       </c>
       <c r="L44" t="n">
-        <v>364.9110552725996</v>
+        <v>83.55931005858859</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>96.76592742855914</v>
       </c>
       <c r="N44" t="n">
-        <v>98.94142958893042</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>93.84387267504475</v>
+        <v>329.1080667879794</v>
       </c>
       <c r="P44" t="n">
-        <v>81.74017683826904</v>
+        <v>36.38247898662087</v>
       </c>
       <c r="Q44" t="n">
-        <v>167.8974496343635</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>129.2659883580726</v>
       </c>
       <c r="S44" t="n">
-        <v>47.42067285264568</v>
+        <v>47.42067285264567</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>22.11959820454176</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
         <v>6.99380701768152</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>63.05102500128658</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38178,13 +38178,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>97.60856006252358</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>34.55753506123701</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
